--- a/Prelim_Data/Arizona_Alluvial/Arizona_Alluvial_50_95.xlsx
+++ b/Prelim_Data/Arizona_Alluvial/Arizona_Alluvial_50_95.xlsx
@@ -518,7 +518,7 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>inter_annual</t>
+          <t>inter_annual%</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -640,7 +640,7 @@
         <v>44104</v>
       </c>
       <c r="D2" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>0.95</v>
@@ -670,16 +670,16 @@
         <v>39.86363636363637</v>
       </c>
       <c r="N2" t="n">
-        <v>7.078933766767991</v>
+        <v>7.008603769967405</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1618397250380857</v>
+        <v>0.1604406011793271</v>
       </c>
       <c r="P2" t="n">
-        <v>0.44</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.090909090909091</v>
+        <v>4.181818181818182</v>
       </c>
       <c r="R2" t="n">
         <v>166.0454545454545</v>
@@ -761,7 +761,7 @@
         <v>44104</v>
       </c>
       <c r="D3" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>0.95</v>
@@ -797,7 +797,7 @@
         <v>0.007570085994478534</v>
       </c>
       <c r="P3" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="n">
         <v>3.75</v>
@@ -882,7 +882,7 @@
         <v>44104</v>
       </c>
       <c r="D4" t="n">
-        <v>11.89048596851472</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
         <v>0.95</v>
@@ -912,16 +912,16 @@
         <v>19.36363636363636</v>
       </c>
       <c r="N4" t="n">
-        <v>1.716833908812518</v>
+        <v>1.704712696691306</v>
       </c>
       <c r="O4" t="n">
-        <v>1.116757989797275e-05</v>
+        <v>1.10861200530809e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9166666666666666</v>
+        <v>92</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81818181818182</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="R4" t="n">
         <v>239.0909090909091</v>
@@ -1003,7 +1003,7 @@
         <v>44104</v>
       </c>
       <c r="D5" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>0.95</v>
@@ -1039,7 +1039,7 @@
         <v>0.000804753477904943</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5600000000000001</v>
+        <v>56</v>
       </c>
       <c r="Q5" t="n">
         <v>3.392857142857143</v>
@@ -1124,7 +1124,7 @@
         <v>44104</v>
       </c>
       <c r="D6" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>0.95</v>
@@ -1160,7 +1160,7 @@
         <v>0.005325197610153538</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="n">
         <v>3.285714285714286</v>
@@ -1245,7 +1245,7 @@
         <v>44104</v>
       </c>
       <c r="D7" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0.95</v>
@@ -1281,7 +1281,7 @@
         <v>0.004306174978828032</v>
       </c>
       <c r="P7" t="n">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="n">
         <v>4.117647058823529</v>
@@ -1366,7 +1366,7 @@
         <v>44104</v>
       </c>
       <c r="D8" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0.95</v>
@@ -1402,7 +1402,7 @@
         <v>0.0002524928774354822</v>
       </c>
       <c r="P8" t="n">
-        <v>0.46</v>
+        <v>46</v>
       </c>
       <c r="Q8" t="n">
         <v>3.652173913043478</v>
@@ -1487,7 +1487,7 @@
         <v>44104</v>
       </c>
       <c r="D9" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0.95</v>
@@ -1523,7 +1523,7 @@
         <v>0.005682814653339045</v>
       </c>
       <c r="P9" t="n">
-        <v>0.84</v>
+        <v>84</v>
       </c>
       <c r="Q9" t="n">
         <v>3.904761904761905</v>
@@ -1608,7 +1608,7 @@
         <v>44104</v>
       </c>
       <c r="D10" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0.95</v>
@@ -1644,7 +1644,7 @@
         <v>0.0007730828729894425</v>
       </c>
       <c r="P10" t="n">
-        <v>0.48</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="n">
         <v>3.291666666666667</v>
@@ -1729,7 +1729,7 @@
         <v>44104</v>
       </c>
       <c r="D11" t="n">
-        <v>35.8631074606434</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n">
         <v>0.95</v>
@@ -1765,7 +1765,7 @@
         <v>0.000975655584152494</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6666666666666666</v>
+        <v>67</v>
       </c>
       <c r="Q11" t="n">
         <v>4.916666666666667</v>
@@ -1850,7 +1850,7 @@
         <v>44104</v>
       </c>
       <c r="D12" t="n">
-        <v>28.99931553730322</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
         <v>0.95</v>
@@ -1886,7 +1886,7 @@
         <v>0.005415857148478923</v>
       </c>
       <c r="P12" t="n">
-        <v>0.896551724137931</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="n">
         <v>3.884615384615385</v>
@@ -1971,7 +1971,7 @@
         <v>44104</v>
       </c>
       <c r="D13" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0.95</v>
@@ -2007,7 +2007,7 @@
         <v>0.0001872734572288249</v>
       </c>
       <c r="P13" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="n">
         <v>5.558139534883721</v>
@@ -2092,7 +2092,7 @@
         <v>44104</v>
       </c>
       <c r="D14" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0.95</v>
@@ -2128,7 +2128,7 @@
         <v>0.0002903048748246516</v>
       </c>
       <c r="P14" t="n">
-        <v>0.34</v>
+        <v>34</v>
       </c>
       <c r="Q14" t="n">
         <v>3.647058823529412</v>
@@ -2213,7 +2213,7 @@
         <v>44104</v>
       </c>
       <c r="D15" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0.95</v>
@@ -2249,7 +2249,7 @@
         <v>0.002568560651059326</v>
       </c>
       <c r="P15" t="n">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="Q15" t="n">
         <v>3.621621621621621</v>
@@ -2334,7 +2334,7 @@
         <v>44104</v>
       </c>
       <c r="D16" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0.95</v>
@@ -2364,16 +2364,16 @@
         <v>18.97674418604651</v>
       </c>
       <c r="N16" t="n">
-        <v>3.294788351183701</v>
+        <v>3.280059669013157</v>
       </c>
       <c r="O16" t="n">
-        <v>0.00104470128363827</v>
+        <v>0.00104454936836598</v>
       </c>
       <c r="P16" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.558139534883721</v>
+        <v>5.581395348837209</v>
       </c>
       <c r="R16" t="n">
         <v>198.1860465116279</v>
@@ -2455,7 +2455,7 @@
         <v>44104</v>
       </c>
       <c r="D17" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0.95</v>
@@ -2491,7 +2491,7 @@
         <v>0.0007954829815824975</v>
       </c>
       <c r="P17" t="n">
-        <v>0.54</v>
+        <v>54</v>
       </c>
       <c r="Q17" t="n">
         <v>8.25925925925926</v>
@@ -2576,7 +2576,7 @@
         <v>44104</v>
       </c>
       <c r="D18" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0.95</v>
@@ -2606,16 +2606,16 @@
         <v>112.875</v>
       </c>
       <c r="N18" t="n">
-        <v>58.65</v>
+        <v>35.04166666666666</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8664027399705384</v>
+        <v>0.520106281903908</v>
       </c>
       <c r="P18" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.125</v>
+        <v>3.375</v>
       </c>
       <c r="R18" t="n">
         <v>213.5</v>
@@ -2697,7 +2697,7 @@
         <v>44104</v>
       </c>
       <c r="D19" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>0.95</v>
@@ -2727,16 +2727,16 @@
         <v>22.26829268292683</v>
       </c>
       <c r="N19" t="n">
-        <v>4.635452961672474</v>
+        <v>4.623257839721254</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01454437831985987</v>
+        <v>0.01453304053074315</v>
       </c>
       <c r="P19" t="n">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.097560975609756</v>
+        <v>4.121951219512195</v>
       </c>
       <c r="R19" t="n">
         <v>187.3170731707317</v>
@@ -2818,7 +2818,7 @@
         <v>44104</v>
       </c>
       <c r="D20" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
         <v>0.95</v>
@@ -2848,16 +2848,16 @@
         <v>20.90243902439024</v>
       </c>
       <c r="N20" t="n">
-        <v>3.967363530778165</v>
+        <v>3.950290360046457</v>
       </c>
       <c r="O20" t="n">
-        <v>0.005818277957355806</v>
+        <v>0.005793433281046611</v>
       </c>
       <c r="P20" t="n">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.048780487804878</v>
+        <v>4.073170731707317</v>
       </c>
       <c r="R20" t="n">
         <v>195.780487804878</v>
@@ -2939,7 +2939,7 @@
         <v>44104</v>
       </c>
       <c r="D21" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E21" t="n">
         <v>0.95</v>
@@ -2969,16 +2969,16 @@
         <v>43.38095238095238</v>
       </c>
       <c r="N21" t="n">
-        <v>14.26111111111111</v>
+        <v>13.89115646258503</v>
       </c>
       <c r="O21" t="n">
-        <v>0.04578472115768858</v>
+        <v>0.04520175934726024</v>
       </c>
       <c r="P21" t="n">
-        <v>0.42</v>
+        <v>42</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.761904761904762</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="R21" t="n">
         <v>174.3333333333333</v>
@@ -3060,7 +3060,7 @@
         <v>44104</v>
       </c>
       <c r="D22" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E22" t="n">
         <v>0.95</v>
@@ -3096,7 +3096,7 @@
         <v>0.001083750075851546</v>
       </c>
       <c r="P22" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="Q22" t="n">
         <v>4.861111111111111</v>
@@ -3181,7 +3181,7 @@
         <v>44104</v>
       </c>
       <c r="D23" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>0.95</v>
@@ -3211,16 +3211,16 @@
         <v>20.62790697674419</v>
       </c>
       <c r="N23" t="n">
-        <v>1.446289142171209</v>
+        <v>1.443100716341273</v>
       </c>
       <c r="O23" t="n">
-        <v>2.39188524858953e-05</v>
+        <v>2.380896781224816e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.232558139534884</v>
+        <v>9.279069767441861</v>
       </c>
       <c r="R23" t="n">
         <v>146.2325581395349</v>
@@ -3302,7 +3302,7 @@
         <v>44104</v>
       </c>
       <c r="D24" t="n">
-        <v>46.99794661190965</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
         <v>0.95</v>
@@ -3332,16 +3332,16 @@
         <v>21.23076923076923</v>
       </c>
       <c r="N24" t="n">
-        <v>1.569959112023022</v>
+        <v>1.567013859077769</v>
       </c>
       <c r="O24" t="n">
-        <v>0.0001582631162896272</v>
+        <v>0.0001579175683420111</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8297872340425532</v>
+        <v>83</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.02564102564103</v>
+        <v>11.05128205128205</v>
       </c>
       <c r="R24" t="n">
         <v>233.1025641025641</v>
@@ -3423,7 +3423,7 @@
         <v>44104</v>
       </c>
       <c r="D25" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>0.95</v>
@@ -3459,7 +3459,7 @@
         <v>0.0006977111508021693</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q25" t="n">
         <v>6.825</v>
@@ -3544,7 +3544,7 @@
         <v>44104</v>
       </c>
       <c r="D26" t="n">
-        <v>32.05749486652977</v>
+        <v>33</v>
       </c>
       <c r="E26" t="n">
         <v>0.95</v>
@@ -3574,16 +3574,16 @@
         <v>21.15384615384615</v>
       </c>
       <c r="N26" t="n">
-        <v>2.483637409598948</v>
+        <v>2.470700346661885</v>
       </c>
       <c r="O26" t="n">
-        <v>0.006538336709434921</v>
+        <v>0.006521313334130663</v>
       </c>
       <c r="P26" t="n">
-        <v>0.7878787878787878</v>
+        <v>79</v>
       </c>
       <c r="Q26" t="n">
-        <v>6.576923076923077</v>
+        <v>6.615384615384615</v>
       </c>
       <c r="R26" t="n">
         <v>197.8461538461538</v>
@@ -3665,7 +3665,7 @@
         <v>44104</v>
       </c>
       <c r="D27" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E27" t="n">
         <v>0.95</v>
@@ -3695,16 +3695,16 @@
         <v>18.31914893617021</v>
       </c>
       <c r="N27" t="n">
-        <v>1.375229630498325</v>
+        <v>1.36884665177492</v>
       </c>
       <c r="O27" t="n">
-        <v>2.773186172941654e-05</v>
+        <v>2.756971103097957e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.19148936170213</v>
+        <v>13.21276595744681</v>
       </c>
       <c r="R27" t="n">
         <v>211.2978723404255</v>
@@ -3786,7 +3786,7 @@
         <v>44104</v>
       </c>
       <c r="D28" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E28" t="n">
         <v>0.95</v>
@@ -3816,16 +3816,16 @@
         <v>19</v>
       </c>
       <c r="N28" t="n">
-        <v>1.437915476971541</v>
+        <v>1.433802922858987</v>
       </c>
       <c r="O28" t="n">
-        <v>3.254641024642492e-05</v>
+        <v>3.246863833902713e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.21739130434783</v>
+        <v>11.26086956521739</v>
       </c>
       <c r="R28" t="n">
         <v>155.6086956521739</v>
@@ -3907,7 +3907,7 @@
         <v>44104</v>
       </c>
       <c r="D29" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>0.95</v>
@@ -3943,7 +3943,7 @@
         <v>0.01220568357483902</v>
       </c>
       <c r="P29" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q29" t="n">
         <v>8.976744186046512</v>
@@ -4028,7 +4028,7 @@
         <v>44104</v>
       </c>
       <c r="D30" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E30" t="n">
         <v>0.95</v>
@@ -4058,16 +4058,16 @@
         <v>151.8333333333333</v>
       </c>
       <c r="N30" t="n">
-        <v>58.64285714285714</v>
+        <v>52.90277777777778</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13184536161165</v>
+        <v>1.050532015580561</v>
       </c>
       <c r="P30" t="n">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="R30" t="n">
         <v>174.3333333333333</v>
@@ -4149,7 +4149,7 @@
         <v>44104</v>
       </c>
       <c r="D31" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>0.95</v>
@@ -4185,7 +4185,7 @@
         <v>0.0004539088893158867</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="Q31" t="n">
         <v>8.6</v>
@@ -4270,7 +4270,7 @@
         <v>44104</v>
       </c>
       <c r="D32" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
         <v>0.95</v>
@@ -4300,16 +4300,16 @@
         <v>17.93877551020408</v>
       </c>
       <c r="N32" t="n">
-        <v>1.573390188435996</v>
+        <v>1.569858587761538</v>
       </c>
       <c r="O32" t="n">
-        <v>4.076761031387002e-05</v>
+        <v>4.06629277774157e-05</v>
       </c>
       <c r="P32" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.877551020408163</v>
+        <v>9.918367346938776</v>
       </c>
       <c r="R32" t="n">
         <v>231.3265306122449</v>
@@ -4391,7 +4391,7 @@
         <v>44104</v>
       </c>
       <c r="D33" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E33" t="n">
         <v>0.95</v>
@@ -4427,7 +4427,7 @@
         <v>1.137662553081423e-05</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q33" t="n">
         <v>11.76</v>
@@ -4512,7 +4512,7 @@
         <v>44104</v>
       </c>
       <c r="D34" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E34" t="n">
         <v>0.95</v>
@@ -4542,16 +4542,16 @@
         <v>76.88888888888889</v>
       </c>
       <c r="N34" t="n">
-        <v>6.64989417989418</v>
+        <v>6.454301030353662</v>
       </c>
       <c r="O34" t="n">
-        <v>0.01060014885224726</v>
+        <v>0.01039427757081582</v>
       </c>
       <c r="P34" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.55555555555556</v>
+        <v>11.77777777777778</v>
       </c>
       <c r="R34" t="n">
         <v>208.1111111111111</v>
@@ -4633,7 +4633,7 @@
         <v>44104</v>
       </c>
       <c r="D35" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E35" t="n">
         <v>0.95</v>
@@ -4663,16 +4663,16 @@
         <v>18.12244897959184</v>
       </c>
       <c r="N35" t="n">
-        <v>1.147144671704732</v>
+        <v>1.144877098008586</v>
       </c>
       <c r="O35" t="n">
-        <v>1.121301597027992e-05</v>
+        <v>1.120093843067864e-05</v>
       </c>
       <c r="P35" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.85714285714286</v>
+        <v>15.87755102040816</v>
       </c>
       <c r="R35" t="n">
         <v>227.9387755102041</v>
@@ -4754,7 +4754,7 @@
         <v>44104</v>
       </c>
       <c r="D36" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E36" t="n">
         <v>0.95</v>
@@ -4784,16 +4784,16 @@
         <v>18.64444444444445</v>
       </c>
       <c r="N36" t="n">
-        <v>1.565017525015977</v>
+        <v>1.563718379716832</v>
       </c>
       <c r="O36" t="n">
-        <v>2.13238517851496e-05</v>
+        <v>2.130929779728479e-05</v>
       </c>
       <c r="P36" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.86666666666667</v>
+        <v>11.88888888888889</v>
       </c>
       <c r="R36" t="n">
         <v>230</v>
@@ -4875,7 +4875,7 @@
         <v>44104</v>
       </c>
       <c r="D37" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
         <v>0.95</v>
@@ -4911,7 +4911,7 @@
         <v>2.163741145982235e-05</v>
       </c>
       <c r="P37" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="Q37" t="n">
         <v>9.36734693877551</v>
@@ -4996,7 +4996,7 @@
         <v>44104</v>
       </c>
       <c r="D38" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E38" t="n">
         <v>0.95</v>
@@ -5026,16 +5026,16 @@
         <v>22.475</v>
       </c>
       <c r="N38" t="n">
-        <v>3.205704595649448</v>
+        <v>3.171348535043388</v>
       </c>
       <c r="O38" t="n">
-        <v>0.001172787907196458</v>
+        <v>0.001164792053479428</v>
       </c>
       <c r="P38" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q38" t="n">
-        <v>7.425</v>
+        <v>7.475</v>
       </c>
       <c r="R38" t="n">
         <v>207.425</v>
@@ -5117,7 +5117,7 @@
         <v>44104</v>
       </c>
       <c r="D39" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E39" t="n">
         <v>0.95</v>
@@ -5153,7 +5153,7 @@
         <v>0.00105096936627082</v>
       </c>
       <c r="P39" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q39" t="n">
         <v>5.930232558139535</v>
@@ -5238,7 +5238,7 @@
         <v>44104</v>
       </c>
       <c r="D40" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E40" t="n">
         <v>0.95</v>
@@ -5268,16 +5268,16 @@
         <v>19.36170212765957</v>
       </c>
       <c r="N40" t="n">
-        <v>3.031079794909582</v>
+        <v>3.02256915661171</v>
       </c>
       <c r="O40" t="n">
-        <v>0.0003772713574027286</v>
+        <v>0.0003763750684115141</v>
       </c>
       <c r="P40" t="n">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>6.021276595744681</v>
       </c>
       <c r="R40" t="n">
         <v>216.1914893617021</v>
@@ -5359,7 +5359,7 @@
         <v>44104</v>
       </c>
       <c r="D41" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E41" t="n">
         <v>0.95</v>
@@ -5389,16 +5389,16 @@
         <v>23.30769230769231</v>
       </c>
       <c r="N41" t="n">
-        <v>1.309974205710924</v>
+        <v>1.308785851581394</v>
       </c>
       <c r="O41" t="n">
-        <v>9.617722965601972e-06</v>
+        <v>9.609118185297426e-06</v>
       </c>
       <c r="P41" t="n">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="Q41" t="n">
-        <v>16.35897435897436</v>
+        <v>16.38461538461538</v>
       </c>
       <c r="R41" t="n">
         <v>167.2820512820513</v>
@@ -5480,7 +5480,7 @@
         <v>44104</v>
       </c>
       <c r="D42" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
         <v>0.95</v>
@@ -5516,7 +5516,7 @@
         <v>6.834758021218553e-06</v>
       </c>
       <c r="P42" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="Q42" t="n">
         <v>14.73333333333333</v>
@@ -5601,7 +5601,7 @@
         <v>44104</v>
       </c>
       <c r="D43" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E43" t="n">
         <v>0.95</v>
@@ -5631,16 +5631,16 @@
         <v>27.80645161290322</v>
       </c>
       <c r="N43" t="n">
-        <v>4.252806548290419</v>
+        <v>3.81302160205386</v>
       </c>
       <c r="O43" t="n">
-        <v>9.083676643135646e-05</v>
+        <v>8.669679230542324e-05</v>
       </c>
       <c r="P43" t="n">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.612903225806452</v>
+        <v>5.67741935483871</v>
       </c>
       <c r="R43" t="n">
         <v>156.5806451612903</v>
@@ -5722,7 +5722,7 @@
         <v>44104</v>
       </c>
       <c r="D44" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E44" t="n">
         <v>0.95</v>
@@ -5758,7 +5758,7 @@
         <v>1.551578426686282e-05</v>
       </c>
       <c r="P44" t="n">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="Q44" t="n">
         <v>3.25531914893617</v>
@@ -5843,7 +5843,7 @@
         <v>44104</v>
       </c>
       <c r="D45" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E45" t="n">
         <v>0.95</v>
@@ -5873,16 +5873,16 @@
         <v>24.7027027027027</v>
       </c>
       <c r="N45" t="n">
-        <v>6.478828828828829</v>
+        <v>6.455405405405405</v>
       </c>
       <c r="O45" t="n">
-        <v>0.01702794445286712</v>
+        <v>0.0169906059630239</v>
       </c>
       <c r="P45" t="n">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.621621621621621</v>
+        <v>3.648648648648649</v>
       </c>
       <c r="R45" t="n">
         <v>172.1081081081081</v>
@@ -5964,7 +5964,7 @@
         <v>44104</v>
       </c>
       <c r="D46" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
         <v>0.95</v>
@@ -6000,7 +6000,7 @@
         <v>0.01585814604251367</v>
       </c>
       <c r="P46" t="n">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="Q46" t="n">
         <v>3.41025641025641</v>
@@ -6085,7 +6085,7 @@
         <v>44104</v>
       </c>
       <c r="D47" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E47" t="n">
         <v>0.95</v>
@@ -6121,7 +6121,7 @@
         <v>0.01282987881830669</v>
       </c>
       <c r="P47" t="n">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="Q47" t="n">
         <v>3.153846153846154</v>
@@ -6206,7 +6206,7 @@
         <v>44104</v>
       </c>
       <c r="D48" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E48" t="n">
         <v>0.95</v>
@@ -6235,21 +6235,17 @@
       <c r="M48" t="n">
         <v>27.63636363636364</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N48" t="n">
+        <v>7.170562770562769</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.01297130695187508</v>
       </c>
       <c r="P48" t="n">
-        <v>0.66</v>
+        <v>66</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.727272727272727</v>
+        <v>3.757575757575758</v>
       </c>
       <c r="R48" t="n">
         <v>163.3333333333333</v>
@@ -6331,7 +6327,7 @@
         <v>44104</v>
       </c>
       <c r="D49" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E49" t="n">
         <v>0.95</v>
@@ -6367,7 +6363,7 @@
         <v>0.006122119739879717</v>
       </c>
       <c r="P49" t="n">
-        <v>0.44</v>
+        <v>44</v>
       </c>
       <c r="Q49" t="n">
         <v>3.409090909090909</v>
@@ -6452,7 +6448,7 @@
         <v>44104</v>
       </c>
       <c r="D50" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E50" t="n">
         <v>0.95</v>
@@ -6482,16 +6478,16 @@
         <v>24.64864864864865</v>
       </c>
       <c r="N50" t="n">
-        <v>6.073613548613548</v>
+        <v>6.028568503568503</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02069106435293568</v>
+        <v>0.0193800635402998</v>
       </c>
       <c r="P50" t="n">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.756756756756757</v>
+        <v>3.783783783783784</v>
       </c>
       <c r="R50" t="n">
         <v>160.7297297297297</v>
@@ -6573,7 +6569,7 @@
         <v>44104</v>
       </c>
       <c r="D51" t="n">
-        <v>2.064339493497604</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
         <v>0.95</v>
@@ -6609,7 +6605,7 @@
         <v>0.001700088648448984</v>
       </c>
       <c r="P51" t="n">
-        <v>0.6666666666666666</v>
+        <v>67</v>
       </c>
       <c r="Q51" t="n">
         <v>4.5</v>
@@ -6694,7 +6690,7 @@
         <v>44104</v>
       </c>
       <c r="D52" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E52" t="n">
         <v>0.95</v>
@@ -6724,16 +6720,16 @@
         <v>23.33333333333333</v>
       </c>
       <c r="N52" t="n">
-        <v>4.821970977740209</v>
+        <v>4.795688926458157</v>
       </c>
       <c r="O52" t="n">
-        <v>0.006075497936971761</v>
+        <v>0.006022777370585606</v>
       </c>
       <c r="P52" t="n">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="Q52" t="n">
-        <v>4.102564102564102</v>
+        <v>4.153846153846154</v>
       </c>
       <c r="R52" t="n">
         <v>178.974358974359</v>
@@ -6815,7 +6811,7 @@
         <v>44104</v>
       </c>
       <c r="D53" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E53" t="n">
         <v>0.95</v>
@@ -6845,16 +6841,16 @@
         <v>25.30555555555556</v>
       </c>
       <c r="N53" t="n">
-        <v>6.918187830687831</v>
+        <v>6.867261904761905</v>
       </c>
       <c r="O53" t="n">
-        <v>0.05197568142610684</v>
+        <v>0.04977093174983085</v>
       </c>
       <c r="P53" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="Q53" t="n">
-        <v>3.472222222222222</v>
+        <v>3.5</v>
       </c>
       <c r="R53" t="n">
         <v>165.3333333333333</v>
@@ -6936,7 +6932,7 @@
         <v>44104</v>
       </c>
       <c r="D54" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E54" t="n">
         <v>0.95</v>
@@ -6966,16 +6962,16 @@
         <v>25.91428571428571</v>
       </c>
       <c r="N54" t="n">
-        <v>7.44078231292517</v>
+        <v>7.269353741496598</v>
       </c>
       <c r="O54" t="n">
-        <v>0.06365590629712103</v>
+        <v>0.05568636121064039</v>
       </c>
       <c r="P54" t="n">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>3.028571428571428</v>
       </c>
       <c r="R54" t="n">
         <v>181.1142857142857</v>
@@ -7057,7 +7053,7 @@
         <v>44104</v>
       </c>
       <c r="D55" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E55" t="n">
         <v>0.95</v>
@@ -7087,16 +7083,16 @@
         <v>20.26666666666667</v>
       </c>
       <c r="N55" t="n">
-        <v>3.744153439153439</v>
+        <v>3.725511463844797</v>
       </c>
       <c r="O55" t="n">
-        <v>0.006746571441578923</v>
+        <v>0.00672072926083699</v>
       </c>
       <c r="P55" t="n">
-        <v>0.9</v>
+        <v>90</v>
       </c>
       <c r="Q55" t="n">
-        <v>5.022222222222222</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="R55" t="n">
         <v>185.8888888888889</v>
@@ -7178,7 +7174,7 @@
         <v>44104</v>
       </c>
       <c r="D56" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E56" t="n">
         <v>0.95</v>
@@ -7214,7 +7210,7 @@
         <v>0.01248830260125558</v>
       </c>
       <c r="P56" t="n">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="Q56" t="n">
         <v>3.842105263157895</v>
@@ -7299,7 +7295,7 @@
         <v>44104</v>
       </c>
       <c r="D57" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E57" t="n">
         <v>0.95</v>
@@ -7329,16 +7325,16 @@
         <v>23.92105263157895</v>
       </c>
       <c r="N57" t="n">
-        <v>4.294529885319359</v>
+        <v>4.259442166021113</v>
       </c>
       <c r="O57" t="n">
-        <v>0.001999930427697323</v>
+        <v>0.001976108507904986</v>
       </c>
       <c r="P57" t="n">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="Q57" t="n">
-        <v>4.894736842105263</v>
+        <v>4.921052631578948</v>
       </c>
       <c r="R57" t="n">
         <v>177.9473684210526</v>
@@ -7420,7 +7416,7 @@
         <v>44104</v>
       </c>
       <c r="D58" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E58" t="n">
         <v>0.95</v>
@@ -7456,7 +7452,7 @@
         <v>0.06262496513120593</v>
       </c>
       <c r="P58" t="n">
-        <v>0.28</v>
+        <v>28</v>
       </c>
       <c r="Q58" t="n">
         <v>3.428571428571428</v>
@@ -7541,7 +7537,7 @@
         <v>44104</v>
       </c>
       <c r="D59" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E59" t="n">
         <v>0.95</v>
@@ -7571,16 +7567,16 @@
         <v>19.02857142857143</v>
       </c>
       <c r="N59" t="n">
-        <v>2.737962275819419</v>
+        <v>2.712247990105133</v>
       </c>
       <c r="O59" t="n">
-        <v>0.002546350326810968</v>
+        <v>0.002531582796813863</v>
       </c>
       <c r="P59" t="n">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="Q59" t="n">
-        <v>6.885714285714286</v>
+        <v>6.914285714285715</v>
       </c>
       <c r="R59" t="n">
         <v>269.7428571428571</v>
@@ -7662,7 +7658,7 @@
         <v>44104</v>
       </c>
       <c r="D60" t="n">
-        <v>26.83093771389459</v>
+        <v>27</v>
       </c>
       <c r="E60" t="n">
         <v>0.95</v>
@@ -7692,16 +7688,16 @@
         <v>28.82352941176471</v>
       </c>
       <c r="N60" t="n">
-        <v>10.62549019607843</v>
+        <v>10.0078431372549</v>
       </c>
       <c r="O60" t="n">
-        <v>0.0001994617726700303</v>
+        <v>0.0001966841898440049</v>
       </c>
       <c r="P60" t="n">
-        <v>0.6296296296296297</v>
+        <v>63</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.647058823529412</v>
+        <v>2.705882352941177</v>
       </c>
       <c r="R60" t="n">
         <v>251.4705882352941</v>
@@ -7783,7 +7779,7 @@
         <v>44104</v>
       </c>
       <c r="D61" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E61" t="n">
         <v>0.95</v>
@@ -7813,16 +7809,16 @@
         <v>18.59183673469388</v>
       </c>
       <c r="N61" t="n">
-        <v>2.993668746219767</v>
+        <v>2.981650605630198</v>
       </c>
       <c r="O61" t="n">
-        <v>0.00272381639120905</v>
+        <v>0.002706302571839606</v>
       </c>
       <c r="P61" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="Q61" t="n">
-        <v>6.244897959183674</v>
+        <v>6.26530612244898</v>
       </c>
       <c r="R61" t="n">
         <v>259.3265306122449</v>
@@ -7904,7 +7900,7 @@
         <v>44104</v>
       </c>
       <c r="D62" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E62" t="n">
         <v>0.95</v>
@@ -7934,16 +7930,16 @@
         <v>18.73684210526316</v>
       </c>
       <c r="N62" t="n">
-        <v>2.73554625199362</v>
+        <v>2.726268249294565</v>
       </c>
       <c r="O62" t="n">
-        <v>0.002908149237405226</v>
+        <v>0.00289094437998348</v>
       </c>
       <c r="P62" t="n">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="Q62" t="n">
-        <v>6.421052631578948</v>
+        <v>6.447368421052632</v>
       </c>
       <c r="R62" t="n">
         <v>258.9736842105263</v>
@@ -8025,7 +8021,7 @@
         <v>44104</v>
       </c>
       <c r="D63" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E63" t="n">
         <v>0.95</v>
@@ -8055,16 +8051,16 @@
         <v>18.51063829787234</v>
       </c>
       <c r="N63" t="n">
-        <v>2.771722780765334</v>
+        <v>2.75517431740836</v>
       </c>
       <c r="O63" t="n">
-        <v>0.001698037442591891</v>
+        <v>0.00168045154379771</v>
       </c>
       <c r="P63" t="n">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="Q63" t="n">
-        <v>5.914893617021277</v>
+        <v>5.957446808510638</v>
       </c>
       <c r="R63" t="n">
         <v>200.3404255319149</v>
@@ -8146,7 +8142,7 @@
         <v>44104</v>
       </c>
       <c r="D64" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E64" t="n">
         <v>0.95</v>
@@ -8176,16 +8172,16 @@
         <v>29.2258064516129</v>
       </c>
       <c r="N64" t="n">
-        <v>5.796428571428572</v>
+        <v>5.732680491551459</v>
       </c>
       <c r="O64" t="n">
-        <v>0.01766028143745992</v>
+        <v>0.01741331260178993</v>
       </c>
       <c r="P64" t="n">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="Q64" t="n">
-        <v>4.258064516129032</v>
+        <v>4.290322580645161</v>
       </c>
       <c r="R64" t="n">
         <v>187.5161290322581</v>
@@ -8267,7 +8263,7 @@
         <v>44104</v>
       </c>
       <c r="D65" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E65" t="n">
         <v>0.95</v>
@@ -8297,16 +8293,16 @@
         <v>20.65</v>
       </c>
       <c r="N65" t="n">
-        <v>3.902192460317461</v>
+        <v>3.809692460317461</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0004322984938038502</v>
+        <v>0.0004136529376846597</v>
       </c>
       <c r="P65" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q65" t="n">
-        <v>4.9</v>
+        <v>4.925</v>
       </c>
       <c r="R65" t="n">
         <v>267.375</v>
@@ -8388,7 +8384,7 @@
         <v>44104</v>
       </c>
       <c r="D66" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E66" t="n">
         <v>0.95</v>
@@ -8418,16 +8414,16 @@
         <v>19.42553191489362</v>
       </c>
       <c r="N66" t="n">
-        <v>3.996513002364066</v>
+        <v>3.953959810874704</v>
       </c>
       <c r="O66" t="n">
-        <v>0.002420615568104767</v>
+        <v>0.002396925986875311</v>
       </c>
       <c r="P66" t="n">
-        <v>0.9399999999999999</v>
+        <v>94</v>
       </c>
       <c r="Q66" t="n">
-        <v>4.106382978723405</v>
+        <v>4.127659574468085</v>
       </c>
       <c r="R66" t="n">
         <v>249.4042553191489</v>
@@ -8509,7 +8505,7 @@
         <v>44104</v>
       </c>
       <c r="D67" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E67" t="n">
         <v>0.95</v>
@@ -8539,16 +8535,16 @@
         <v>18.27906976744186</v>
       </c>
       <c r="N67" t="n">
-        <v>2.518150389662018</v>
+        <v>2.507544716265647</v>
       </c>
       <c r="O67" t="n">
-        <v>0.001889846613835724</v>
+        <v>0.001867082785232832</v>
       </c>
       <c r="P67" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q67" t="n">
-        <v>7.069767441860465</v>
+        <v>7.093023255813954</v>
       </c>
       <c r="R67" t="n">
         <v>259.5116279069767</v>
@@ -8630,7 +8626,7 @@
         <v>44104</v>
       </c>
       <c r="D68" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E68" t="n">
         <v>0.95</v>
@@ -8659,21 +8655,17 @@
       <c r="M68" t="n">
         <v>18.24324324324324</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N68" t="n">
+        <v>3.490808665808666</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.001291751888846266</v>
       </c>
       <c r="P68" t="n">
-        <v>0.74</v>
+        <v>74</v>
       </c>
       <c r="Q68" t="n">
-        <v>4.405405405405405</v>
+        <v>4.432432432432432</v>
       </c>
       <c r="R68" t="n">
         <v>192.8648648648649</v>
@@ -8755,7 +8747,7 @@
         <v>44104</v>
       </c>
       <c r="D69" t="n">
-        <v>33.18822724161533</v>
+        <v>34</v>
       </c>
       <c r="E69" t="n">
         <v>0.95</v>
@@ -8791,7 +8783,7 @@
         <v>0.002811527447548426</v>
       </c>
       <c r="P69" t="n">
-        <v>0.7647058823529411</v>
+        <v>76</v>
       </c>
       <c r="Q69" t="n">
         <v>4.615384615384615</v>
@@ -8876,7 +8868,7 @@
         <v>44104</v>
       </c>
       <c r="D70" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E70" t="n">
         <v>0.95</v>
@@ -8912,7 +8904,7 @@
         <v>0.0003784889984496893</v>
       </c>
       <c r="P70" t="n">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="Q70" t="n">
         <v>7.264705882352941</v>
@@ -8997,7 +8989,7 @@
         <v>44104</v>
       </c>
       <c r="D71" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E71" t="n">
         <v>0.95</v>
@@ -9033,7 +9025,7 @@
         <v>0.0007759786318381973</v>
       </c>
       <c r="P71" t="n">
-        <v>0.58</v>
+        <v>57</v>
       </c>
       <c r="Q71" t="n">
         <v>4.275862068965517</v>
@@ -9118,7 +9110,7 @@
         <v>44104</v>
       </c>
       <c r="D72" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E72" t="n">
         <v>0.95</v>
@@ -9147,21 +9139,17 @@
       <c r="M72" t="n">
         <v>17.02173913043478</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N72" t="n">
+        <v>3.609765596722119</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.0100129569626249</v>
       </c>
       <c r="P72" t="n">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="Q72" t="n">
-        <v>6.978260869565218</v>
+        <v>7</v>
       </c>
       <c r="R72" t="n">
         <v>232.3913043478261</v>
@@ -9243,7 +9231,7 @@
         <v>44104</v>
       </c>
       <c r="D73" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E73" t="n">
         <v>0.95</v>
@@ -9279,7 +9267,7 @@
         <v>0.000415606530668917</v>
       </c>
       <c r="P73" t="n">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="Q73" t="n">
         <v>9.735294117647058</v>
@@ -9364,7 +9352,7 @@
         <v>44104</v>
       </c>
       <c r="D74" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E74" t="n">
         <v>0.95</v>
@@ -9394,16 +9382,16 @@
         <v>18</v>
       </c>
       <c r="N74" t="n">
-        <v>2.552391964760386</v>
+        <v>2.531003075871497</v>
       </c>
       <c r="O74" t="n">
-        <v>0.001332275758440225</v>
+        <v>0.001290247668181732</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q74" t="n">
-        <v>6.48</v>
+        <v>6.52</v>
       </c>
       <c r="R74" t="n">
         <v>214.2</v>
@@ -9485,7 +9473,7 @@
         <v>44104</v>
       </c>
       <c r="D75" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E75" t="n">
         <v>0.95</v>
@@ -9514,21 +9502,17 @@
       <c r="M75" t="n">
         <v>26.85294117647059</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N75" t="n">
+        <v>6.96844070961718</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0.01048840317669684</v>
       </c>
       <c r="P75" t="n">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="Q75" t="n">
-        <v>3.529411764705882</v>
+        <v>3.558823529411764</v>
       </c>
       <c r="R75" t="n">
         <v>174.3235294117647</v>
@@ -9610,7 +9594,7 @@
         <v>44104</v>
       </c>
       <c r="D76" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E76" t="n">
         <v>0.95</v>
@@ -9640,16 +9624,16 @@
         <v>27.60606060606061</v>
       </c>
       <c r="N76" t="n">
-        <v>5.031313131313131</v>
+        <v>4.97070707070707</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01810696822585354</v>
+        <v>0.01729514997641936</v>
       </c>
       <c r="P76" t="n">
-        <v>0.66</v>
+        <v>66</v>
       </c>
       <c r="Q76" t="n">
-        <v>4.666666666666667</v>
+        <v>4.696969696969697</v>
       </c>
       <c r="R76" t="n">
         <v>157.8787878787879</v>
@@ -9731,7 +9715,7 @@
         <v>44104</v>
       </c>
       <c r="D77" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
         <v>0.95</v>
@@ -9760,21 +9744,17 @@
       <c r="M77" t="n">
         <v>25.36111111111111</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N77" t="n">
+        <v>6.786706349206351</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0.001040442496602208</v>
       </c>
       <c r="P77" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="Q77" t="n">
-        <v>3.111111111111111</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="R77" t="n">
         <v>216</v>
@@ -9856,7 +9836,7 @@
         <v>44104</v>
       </c>
       <c r="D78" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n">
         <v>0.95</v>
@@ -9886,16 +9866,16 @@
         <v>26.05714285714286</v>
       </c>
       <c r="N78" t="n">
-        <v>6.349115646258504</v>
+        <v>6.23482993197279</v>
       </c>
       <c r="O78" t="n">
-        <v>0.007727955903745786</v>
+        <v>0.007259401735561596</v>
       </c>
       <c r="P78" t="n">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="Q78" t="n">
-        <v>3.228571428571429</v>
+        <v>3.257142857142857</v>
       </c>
       <c r="R78" t="n">
         <v>192.8285714285714</v>
@@ -9977,7 +9957,7 @@
         <v>44104</v>
       </c>
       <c r="D79" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E79" t="n">
         <v>0.95</v>
@@ -10007,16 +9987,16 @@
         <v>23.5</v>
       </c>
       <c r="N79" t="n">
-        <v>4.641833751044278</v>
+        <v>4.567272347535505</v>
       </c>
       <c r="O79" t="n">
-        <v>0.004455508777816301</v>
+        <v>0.004361589249445839</v>
       </c>
       <c r="P79" t="n">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="Q79" t="n">
-        <v>4.184210526315789</v>
+        <v>4.236842105263158</v>
       </c>
       <c r="R79" t="n">
         <v>178.8157894736842</v>
@@ -10098,7 +10078,7 @@
         <v>44104</v>
       </c>
       <c r="D80" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E80" t="n">
         <v>0.95</v>
@@ -10128,16 +10108,16 @@
         <v>25.25</v>
       </c>
       <c r="N80" t="n">
-        <v>4.472916666666666</v>
+        <v>4.421990740740742</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02555086673274512</v>
+        <v>0.02457223651424912</v>
       </c>
       <c r="P80" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="Q80" t="n">
-        <v>4.305555555555555</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="R80" t="n">
         <v>165.0555555555555</v>
@@ -10219,7 +10199,7 @@
         <v>44104</v>
       </c>
       <c r="D81" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E81" t="n">
         <v>0.95</v>
@@ -10249,16 +10229,16 @@
         <v>18.97916666666667</v>
       </c>
       <c r="N81" t="n">
-        <v>3.020171957671957</v>
+        <v>2.999710648148148</v>
       </c>
       <c r="O81" t="n">
-        <v>0.001585041657462295</v>
+        <v>0.00157380664517896</v>
       </c>
       <c r="P81" t="n">
-        <v>0.96</v>
+        <v>96</v>
       </c>
       <c r="Q81" t="n">
-        <v>5.125</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="R81" t="n">
         <v>201.3541666666667</v>
@@ -10340,7 +10320,7 @@
         <v>44104</v>
       </c>
       <c r="D82" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E82" t="n">
         <v>0.95</v>
@@ -10370,16 +10350,16 @@
         <v>22.325</v>
       </c>
       <c r="N82" t="n">
-        <v>4.761805555555556</v>
+        <v>4.736805555555556</v>
       </c>
       <c r="O82" t="n">
-        <v>0.003352516403332746</v>
+        <v>0.003341771859058841</v>
       </c>
       <c r="P82" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q82" t="n">
-        <v>4.175</v>
+        <v>4.2</v>
       </c>
       <c r="R82" t="n">
         <v>155.375</v>
@@ -10461,7 +10441,7 @@
         <v>44104</v>
       </c>
       <c r="D83" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
         <v>0.95</v>
@@ -10491,16 +10471,16 @@
         <v>25.36111111111111</v>
       </c>
       <c r="N83" t="n">
-        <v>5.262127224627225</v>
+        <v>5.206571669071669</v>
       </c>
       <c r="O83" t="n">
-        <v>0.04805227568181304</v>
+        <v>0.04680293640982104</v>
       </c>
       <c r="P83" t="n">
-        <v>0.72</v>
+        <v>72</v>
       </c>
       <c r="Q83" t="n">
-        <v>4.083333333333333</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="R83" t="n">
         <v>165.8055555555555</v>
@@ -10582,7 +10562,7 @@
         <v>44104</v>
       </c>
       <c r="D84" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E84" t="n">
         <v>0.95</v>
@@ -10612,16 +10592,16 @@
         <v>22.825</v>
       </c>
       <c r="N84" t="n">
-        <v>4.457926587301587</v>
+        <v>4.437093253968254</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01787476290596456</v>
+        <v>0.01771106661379155</v>
       </c>
       <c r="P84" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q84" t="n">
-        <v>4.575</v>
+        <v>4.6</v>
       </c>
       <c r="R84" t="n">
         <v>148.65</v>
@@ -10703,7 +10683,7 @@
         <v>44104</v>
       </c>
       <c r="D85" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E85" t="n">
         <v>0.95</v>
@@ -10739,7 +10719,7 @@
         <v>0.08102362866623214</v>
       </c>
       <c r="P85" t="n">
-        <v>0.38</v>
+        <v>38</v>
       </c>
       <c r="Q85" t="n">
         <v>3.842105263157895</v>
@@ -10824,7 +10804,7 @@
         <v>44104</v>
       </c>
       <c r="D86" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E86" t="n">
         <v>0.95</v>
@@ -10854,16 +10834,16 @@
         <v>20.06451612903226</v>
       </c>
       <c r="N86" t="n">
-        <v>4.436004049713727</v>
+        <v>4.419875017455663</v>
       </c>
       <c r="O86" t="n">
-        <v>0.002299040022399527</v>
+        <v>0.002295741091501694</v>
       </c>
       <c r="P86" t="n">
-        <v>0.62</v>
+        <v>62</v>
       </c>
       <c r="Q86" t="n">
-        <v>3.612903225806452</v>
+        <v>3.645161290322581</v>
       </c>
       <c r="R86" t="n">
         <v>210.7741935483871</v>
@@ -10945,7 +10925,7 @@
         <v>44104</v>
       </c>
       <c r="D87" t="n">
-        <v>25.99863107460643</v>
+        <v>26</v>
       </c>
       <c r="E87" t="n">
         <v>0.95</v>
@@ -10981,7 +10961,7 @@
         <v>0.0003988831310400458</v>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q87" t="n">
         <v>6.153846153846154</v>
@@ -11066,7 +11046,7 @@
         <v>44104</v>
       </c>
       <c r="D88" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E88" t="n">
         <v>0.95</v>
@@ -11096,16 +11076,16 @@
         <v>18.48979591836735</v>
       </c>
       <c r="N88" t="n">
-        <v>4.045383867832848</v>
+        <v>4.039148040168448</v>
       </c>
       <c r="O88" t="n">
-        <v>0.003186088425751099</v>
+        <v>0.003184184840185784</v>
       </c>
       <c r="P88" t="n">
-        <v>0.98</v>
+        <v>98</v>
       </c>
       <c r="Q88" t="n">
-        <v>3.959183673469388</v>
+        <v>3.979591836734694</v>
       </c>
       <c r="R88" t="n">
         <v>219.3265306122449</v>
@@ -11187,7 +11167,7 @@
         <v>44104</v>
       </c>
       <c r="D89" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E89" t="n">
         <v>0.95</v>
@@ -11217,16 +11197,16 @@
         <v>22.29268292682927</v>
       </c>
       <c r="N89" t="n">
-        <v>4.4820029563932</v>
+        <v>4.461677753141168</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01105920899651503</v>
+        <v>0.01103016337097522</v>
       </c>
       <c r="P89" t="n">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="Q89" t="n">
-        <v>4.024390243902439</v>
+        <v>4.048780487804878</v>
       </c>
       <c r="R89" t="n">
         <v>185.0243902439024</v>
@@ -11308,7 +11288,7 @@
         <v>44104</v>
       </c>
       <c r="D90" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E90" t="n">
         <v>0.95</v>
@@ -11338,16 +11318,16 @@
         <v>21.25581395348837</v>
       </c>
       <c r="N90" t="n">
-        <v>3.985431558105977</v>
+        <v>3.958299775160241</v>
       </c>
       <c r="O90" t="n">
-        <v>0.004725680454237966</v>
+        <v>0.004685713082320378</v>
       </c>
       <c r="P90" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q90" t="n">
-        <v>4.604651162790698</v>
+        <v>4.627906976744186</v>
       </c>
       <c r="R90" t="n">
         <v>157.2790697674419</v>
@@ -11429,7 +11409,7 @@
         <v>44104</v>
       </c>
       <c r="D91" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E91" t="n">
         <v>0.95</v>
@@ -11465,7 +11445,7 @@
         <v>0.002075209549762072</v>
       </c>
       <c r="P91" t="n">
-        <v>0.78</v>
+        <v>78</v>
       </c>
       <c r="Q91" t="n">
         <v>5</v>
@@ -11550,7 +11530,7 @@
         <v>44104</v>
       </c>
       <c r="D92" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E92" t="n">
         <v>0.95</v>
@@ -11580,16 +11560,16 @@
         <v>22.12195121951219</v>
       </c>
       <c r="N92" t="n">
-        <v>3.756094041459895</v>
+        <v>3.72763875690705</v>
       </c>
       <c r="O92" t="n">
-        <v>0.00332412449245889</v>
+        <v>0.003253362764769876</v>
       </c>
       <c r="P92" t="n">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="Q92" t="n">
-        <v>5.365853658536586</v>
+        <v>5.390243902439025</v>
       </c>
       <c r="R92" t="n">
         <v>154.5609756097561</v>
@@ -11671,7 +11651,7 @@
         <v>44104</v>
       </c>
       <c r="D93" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E93" t="n">
         <v>0.95</v>
@@ -11701,16 +11681,16 @@
         <v>24</v>
       </c>
       <c r="N93" t="n">
-        <v>4.579362231335916</v>
+        <v>4.566204336599074</v>
       </c>
       <c r="O93" t="n">
-        <v>0.004959115385220378</v>
+        <v>0.004940923808362744</v>
       </c>
       <c r="P93" t="n">
-        <v>0.76</v>
+        <v>76</v>
       </c>
       <c r="Q93" t="n">
-        <v>4.736842105263158</v>
+        <v>4.763157894736842</v>
       </c>
       <c r="R93" t="n">
         <v>162.3421052631579</v>
@@ -11792,7 +11772,7 @@
         <v>44104</v>
       </c>
       <c r="D94" t="n">
-        <v>31.99726214921287</v>
+        <v>32</v>
       </c>
       <c r="E94" t="n">
         <v>0.95</v>
@@ -11828,7 +11808,7 @@
         <v>0.02673695348326967</v>
       </c>
       <c r="P94" t="n">
-        <v>0.78125</v>
+        <v>78</v>
       </c>
       <c r="Q94" t="n">
         <v>3.72</v>
@@ -11913,7 +11893,7 @@
         <v>44104</v>
       </c>
       <c r="D95" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E95" t="n">
         <v>0.95</v>
@@ -11943,16 +11923,16 @@
         <v>49.54545454545455</v>
       </c>
       <c r="N95" t="n">
-        <v>7.238142791551883</v>
+        <v>6.344203397612489</v>
       </c>
       <c r="O95" t="n">
-        <v>2.878711219426254e-05</v>
+        <v>2.463534763094618e-05</v>
       </c>
       <c r="P95" t="n">
-        <v>0.22</v>
+        <v>22</v>
       </c>
       <c r="Q95" t="n">
-        <v>7.727272727272728</v>
+        <v>7.818181818181818</v>
       </c>
       <c r="R95" t="n">
         <v>240.5454545454545</v>
@@ -12034,7 +12014,7 @@
         <v>43899</v>
       </c>
       <c r="D96" t="n">
-        <v>49.43737166324436</v>
+        <v>50</v>
       </c>
       <c r="E96" t="n">
         <v>0.95</v>
@@ -12064,16 +12044,16 @@
         <v>22.1</v>
       </c>
       <c r="N96" t="n">
-        <v>3.923265692640692</v>
+        <v>3.889932359307359</v>
       </c>
       <c r="O96" t="n">
-        <v>0.005160106136021083</v>
+        <v>0.005143020883456507</v>
       </c>
       <c r="P96" t="n">
-        <v>0.8</v>
+        <v>80</v>
       </c>
       <c r="Q96" t="n">
-        <v>4.875</v>
+        <v>4.9</v>
       </c>
       <c r="R96" t="n">
         <v>145.8</v>
@@ -12155,7 +12135,7 @@
         <v>44104</v>
       </c>
       <c r="D97" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E97" t="n">
         <v>0.95</v>
@@ -12185,16 +12165,16 @@
         <v>20.56818181818182</v>
       </c>
       <c r="N97" t="n">
-        <v>3.954452302747757</v>
+        <v>3.943846242141697</v>
       </c>
       <c r="O97" t="n">
-        <v>0.001642570192627832</v>
+        <v>0.001640813106553714</v>
       </c>
       <c r="P97" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="Q97" t="n">
-        <v>4.931818181818182</v>
+        <v>4.954545454545454</v>
       </c>
       <c r="R97" t="n">
         <v>137.7045454545455</v>
@@ -12276,7 +12256,7 @@
         <v>44104</v>
       </c>
       <c r="D98" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E98" t="n">
         <v>0.95</v>
@@ -12306,16 +12286,16 @@
         <v>24.56521739130435</v>
       </c>
       <c r="N98" t="n">
-        <v>4.557950624254972</v>
+        <v>4.492733232950624</v>
       </c>
       <c r="O98" t="n">
-        <v>0.04062814745891502</v>
+        <v>0.03990002530178403</v>
       </c>
       <c r="P98" t="n">
-        <v>0.46</v>
+        <v>46</v>
       </c>
       <c r="Q98" t="n">
-        <v>4.695652173913044</v>
+        <v>4.739130434782608</v>
       </c>
       <c r="R98" t="n">
         <v>136.5652173913043</v>
@@ -12397,7 +12377,7 @@
         <v>44104</v>
       </c>
       <c r="D99" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E99" t="n">
         <v>0.95</v>
@@ -12433,7 +12413,7 @@
         <v>0.04337952713448024</v>
       </c>
       <c r="P99" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="Q99" t="n">
         <v>4.066666666666666</v>
@@ -12518,7 +12498,7 @@
         <v>44104</v>
       </c>
       <c r="D100" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E100" t="n">
         <v>0.95</v>
@@ -12548,16 +12528,16 @@
         <v>21.25581395348837</v>
       </c>
       <c r="N100" t="n">
-        <v>5.394610557401255</v>
+        <v>5.377168696936139</v>
       </c>
       <c r="O100" t="n">
-        <v>0.004239535019325714</v>
+        <v>0.004232687120751745</v>
       </c>
       <c r="P100" t="n">
-        <v>0.86</v>
+        <v>86</v>
       </c>
       <c r="Q100" t="n">
-        <v>3.511627906976744</v>
+        <v>3.534883720930233</v>
       </c>
       <c r="R100" t="n">
         <v>156</v>
@@ -12639,7 +12619,7 @@
         <v>44104</v>
       </c>
       <c r="D101" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E101" t="n">
         <v>0.95</v>
@@ -12675,7 +12655,7 @@
         <v>0.05539182826857902</v>
       </c>
       <c r="P101" t="n">
-        <v>0.52</v>
+        <v>52</v>
       </c>
       <c r="Q101" t="n">
         <v>4.076923076923077</v>
@@ -12760,7 +12740,7 @@
         <v>44104</v>
       </c>
       <c r="D102" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E102" t="n">
         <v>0.95</v>
@@ -12790,16 +12770,16 @@
         <v>18.24</v>
       </c>
       <c r="N102" t="n">
-        <v>3.092212842712843</v>
+        <v>3.087101731601732</v>
       </c>
       <c r="O102" t="n">
-        <v>0.002526590336113198</v>
+        <v>0.002524842937489728</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="Q102" t="n">
-        <v>5.18</v>
+        <v>5.2</v>
       </c>
       <c r="R102" t="n">
         <v>211.12</v>
@@ -12881,7 +12861,7 @@
         <v>44104</v>
       </c>
       <c r="D103" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E103" t="n">
         <v>0.95</v>
@@ -12911,16 +12891,16 @@
         <v>20.34090909090909</v>
       </c>
       <c r="N103" t="n">
-        <v>4.276343795093795</v>
+        <v>4.268768037518037</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01091294192312219</v>
+        <v>0.01090920904194785</v>
       </c>
       <c r="P103" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="Q103" t="n">
-        <v>4.363636363636363</v>
+        <v>4.386363636363637</v>
       </c>
       <c r="R103" t="n">
         <v>185.1363636363636</v>
@@ -13002,7 +12982,7 @@
         <v>44104</v>
       </c>
       <c r="D104" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E104" t="n">
         <v>0.95</v>
@@ -13032,16 +13012,16 @@
         <v>22.21951219512195</v>
       </c>
       <c r="N104" t="n">
-        <v>4.377942315137437</v>
+        <v>4.370625241966705</v>
       </c>
       <c r="O104" t="n">
-        <v>0.001984760661255445</v>
+        <v>0.001983907343442976</v>
       </c>
       <c r="P104" t="n">
-        <v>0.82</v>
+        <v>82</v>
       </c>
       <c r="Q104" t="n">
-        <v>4.146341463414634</v>
+        <v>4.170731707317073</v>
       </c>
       <c r="R104" t="n">
         <v>132.0243902439024</v>
@@ -13123,7 +13103,7 @@
         <v>44104</v>
       </c>
       <c r="D105" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E105" t="n">
         <v>0.95</v>
@@ -13159,7 +13139,7 @@
         <v>0.0002474386672187395</v>
       </c>
       <c r="P105" t="n">
-        <v>0.92</v>
+        <v>92</v>
       </c>
       <c r="Q105" t="n">
         <v>4.586956521739131</v>
@@ -13244,7 +13224,7 @@
         <v>44104</v>
       </c>
       <c r="D106" t="n">
-        <v>37.76865160848734</v>
+        <v>38</v>
       </c>
       <c r="E106" t="n">
         <v>0.95</v>
@@ -13284,10 +13264,10 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.7368421052631579</v>
+        <v>74</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.642857142857143</v>
+        <v>2.678571428571428</v>
       </c>
       <c r="R106" t="n">
         <v>218.4285714285714</v>
@@ -13369,7 +13349,7 @@
         <v>44104</v>
       </c>
       <c r="D107" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E107" t="n">
         <v>0.95</v>
@@ -13398,21 +13378,17 @@
       <c r="M107" t="n">
         <v>100</v>
       </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N107" t="n">
+        <v>48.93055555555556</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.5091725433389205</v>
       </c>
       <c r="P107" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="Q107" t="n">
-        <v>4</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="R107" t="n">
         <v>178.2222222222222</v>
@@ -13494,7 +13470,7 @@
         <v>44104</v>
       </c>
       <c r="D108" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E108" t="n">
         <v>0.95</v>
@@ -13523,21 +13499,17 @@
       <c r="M108" t="n">
         <v>101.1111111111111</v>
       </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N108" t="n">
+        <v>44.29012345679013</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.1593826472339868</v>
       </c>
       <c r="P108" t="n">
-        <v>0.18</v>
+        <v>18</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.888888888888889</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="R108" t="n">
         <v>173.7777777777778</v>
@@ -13619,7 +13591,7 @@
         <v>44104</v>
       </c>
       <c r="D109" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E109" t="n">
         <v>0.95</v>
@@ -13648,21 +13620,17 @@
       <c r="M109" t="n">
         <v>20.34090909090909</v>
       </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="N109" t="n">
+        <v>1.614040986373001</v>
+      </c>
+      <c r="O109" t="n">
+        <v>9.129411798572274e-06</v>
       </c>
       <c r="P109" t="n">
-        <v>0.88</v>
+        <v>88</v>
       </c>
       <c r="Q109" t="n">
-        <v>11.13636363636364</v>
+        <v>11.22727272727273</v>
       </c>
       <c r="R109" t="n">
         <v>142.0454545454545</v>
@@ -13744,7 +13712,7 @@
         <v>44104</v>
       </c>
       <c r="D110" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E110" t="n">
         <v>0.95</v>
@@ -13780,7 +13748,7 @@
         <v>1.017923795821108e-05</v>
       </c>
       <c r="P110" t="n">
-        <v>0.68</v>
+        <v>68</v>
       </c>
       <c r="Q110" t="n">
         <v>12</v>
@@ -13865,7 +13833,7 @@
         <v>44104</v>
       </c>
       <c r="D111" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E111" t="n">
         <v>0.95</v>
@@ -13895,16 +13863,16 @@
         <v>99.5</v>
       </c>
       <c r="N111" t="n">
-        <v>4.182134097092868</v>
+        <v>4.122215618831998</v>
       </c>
       <c r="O111" t="n">
-        <v>5.109043133828593e-05</v>
+        <v>5.028357111126553e-05</v>
       </c>
       <c r="P111" t="n">
-        <v>0.16</v>
+        <v>16</v>
       </c>
       <c r="Q111" t="n">
-        <v>22.25</v>
+        <v>22.5</v>
       </c>
       <c r="R111" t="n">
         <v>154.5</v>
@@ -13986,7 +13954,7 @@
         <v>44104</v>
       </c>
       <c r="D112" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E112" t="n">
         <v>0.95</v>
@@ -14016,16 +13984,16 @@
         <v>20.74285714285714</v>
       </c>
       <c r="N112" t="n">
-        <v>4.387482993197279</v>
+        <v>4.162721088435374</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0001912668851505551</v>
+        <v>0.0001868171467499317</v>
       </c>
       <c r="P112" t="n">
-        <v>0.7</v>
+        <v>70</v>
       </c>
       <c r="Q112" t="n">
-        <v>3.885714285714286</v>
+        <v>3.914285714285714</v>
       </c>
       <c r="R112" t="n">
         <v>266.7142857142857</v>
@@ -14107,7 +14075,7 @@
         <v>44104</v>
       </c>
       <c r="D113" t="n">
-        <v>49.99863107460644</v>
+        <v>50</v>
       </c>
       <c r="E113" t="n">
         <v>0.95</v>
@@ -14143,7 +14111,7 @@
         <v>0.0005486088549261587</v>
       </c>
       <c r="P113" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="Q113" t="n">
         <v>6.666666666666667</v>
@@ -21887,10 +21855,10 @@
         <v>165</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0584045584045584</v>
+        <v>0.05643738977072313</v>
       </c>
       <c r="J4" t="n">
-        <v>1.422262922262922</v>
+        <v>1.432098765432098</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -22652,25 +22620,25 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02167129394912881</v>
+        <v>0.01731473749044365</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.296080239083967</v>
+        <v>-2.379955316310778</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2436323366555925</v>
+        <v>-0.2524916943521595</v>
       </c>
       <c r="G16" t="n">
-        <v>-220</v>
+        <v>-228</v>
       </c>
       <c r="H16" t="n">
         <v>9097.333333333334</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.04184704184704184</v>
       </c>
       <c r="J16" t="n">
-        <v>3.375</v>
+        <v>3.378787878787879</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -22681,25 +22649,25 @@
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02061443770751037</v>
+        <v>0.01721547777672283</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.314972488921536</v>
+        <v>-2.382073140774334</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.2261224489795918</v>
+        <v>-0.2326530612244898</v>
       </c>
       <c r="P16" t="n">
-        <v>-277</v>
+        <v>-285</v>
       </c>
       <c r="Q16" t="n">
         <v>14214.33333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.03999999999999999</v>
+        <v>-0.04093567251461988</v>
       </c>
       <c r="S16" t="n">
-        <v>3.18</v>
+        <v>3.202923976608187</v>
       </c>
     </row>
     <row r="17">
@@ -22847,25 +22815,25 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7870343753888369</v>
+        <v>0.8219175690571126</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.270163625182407</v>
+        <v>-0.225079319267685</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03048780487804878</v>
+        <v>-0.02560975609756097</v>
       </c>
       <c r="G19" t="n">
-        <v>-25</v>
+        <v>-21</v>
       </c>
       <c r="H19" t="n">
-        <v>7891.666666666667</v>
+        <v>7895.666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005092276144907705</v>
+        <v>-0.002272727272727265</v>
       </c>
       <c r="J19" t="n">
-        <v>4.101845522898154</v>
+        <v>4.045454545454545</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -22876,19 +22844,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7178768636022155</v>
+        <v>0.6929527707653689</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3612977659511233</v>
+        <v>0.3948511128362824</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03591836734693878</v>
+        <v>0.03918367346938775</v>
       </c>
       <c r="P19" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="n">
-        <v>14164.66666666667</v>
+        <v>14168.66666666667</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -22912,16 +22880,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8826031478582559</v>
+        <v>0.9728151829590372</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1476700769042368</v>
+        <v>-0.03407771005482389</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01707317073170732</v>
+        <v>-0.004878048780487805</v>
       </c>
       <c r="G20" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="H20" t="n">
         <v>7750</v>
@@ -22941,16 +22909,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8027694245455013</v>
+        <v>0.8750405970838724</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.249764564820854</v>
+        <v>-0.15725917044276</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.02590194264569843</v>
+        <v>-0.01665124884366328</v>
       </c>
       <c r="P20" t="n">
-        <v>-28</v>
+        <v>-18</v>
       </c>
       <c r="Q20" t="n">
         <v>11686</v>
@@ -22959,7 +22927,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2.857142857142857</v>
       </c>
     </row>
     <row r="21">
@@ -22977,25 +22945,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3481916469397861</v>
+        <v>0.413895758139569</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.9381026756366438</v>
+        <v>-0.8170571691028834</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1523809523809524</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="G21" t="n">
-        <v>-32</v>
+        <v>-28</v>
       </c>
       <c r="H21" t="n">
         <v>1092</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.4803846153846154</v>
+        <v>-0.3797619047619047</v>
       </c>
       <c r="J21" t="n">
-        <v>13.05384615384615</v>
+        <v>11.79761904761905</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -23006,16 +22974,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5372807598951339</v>
+        <v>0.562224527581987</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.6169302094687672</v>
+        <v>-0.5795404998039934</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.0546938775510204</v>
+        <v>-0.05142857142857143</v>
       </c>
       <c r="P21" t="n">
-        <v>-67</v>
+        <v>-63</v>
       </c>
       <c r="Q21" t="n">
         <v>11445</v>
@@ -23367,25 +23335,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2386695084918529</v>
+        <v>0.2498882859516058</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.178318868105521</v>
+        <v>-1.150620766269914</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1193339500462535</v>
+        <v>-0.1165587419056429</v>
       </c>
       <c r="G27" t="n">
-        <v>-129</v>
+        <v>-126</v>
       </c>
       <c r="H27" t="n">
-        <v>11800.33333333333</v>
+        <v>11802</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.003968253968253962</v>
+        <v>-0.003611971104231164</v>
       </c>
       <c r="J27" t="n">
-        <v>1.341269841269841</v>
+        <v>1.333075335397317</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -23396,25 +23364,25 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.223631900278163</v>
+        <v>0.23338694310996</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.216927240363858</v>
+        <v>-1.191679490065491</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1191836734693878</v>
+        <v>-0.116734693877551</v>
       </c>
       <c r="P27" t="n">
-        <v>-146</v>
+        <v>-143</v>
       </c>
       <c r="Q27" t="n">
-        <v>14197.33333333333</v>
+        <v>14199</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.004195804195804205</v>
+        <v>-0.004132231404958674</v>
       </c>
       <c r="S27" t="n">
-        <v>1.352797202797203</v>
+        <v>1.346239669421488</v>
       </c>
     </row>
     <row r="28">
@@ -23432,25 +23400,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.243369784505326</v>
+        <v>0.2928650358056286</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.166605343321272</v>
+        <v>-1.051857276765082</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1188405797101449</v>
+        <v>-0.1072463768115942</v>
       </c>
       <c r="G28" t="n">
-        <v>-123</v>
+        <v>-111</v>
       </c>
       <c r="H28" t="n">
         <v>10936.33333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.003787878787878794</v>
+        <v>-0.003148366784730415</v>
       </c>
       <c r="J28" t="n">
-        <v>1.370941558441559</v>
+        <v>1.338780836388492</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -23461,25 +23429,25 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1054514304281036</v>
+        <v>0.1290662517995989</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.618980631893297</v>
+        <v>-1.517794342399966</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.1575510204081633</v>
+        <v>-0.1477551020408163</v>
       </c>
       <c r="P28" t="n">
-        <v>-193</v>
+        <v>-181</v>
       </c>
       <c r="Q28" t="n">
         <v>14064.33333333333</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.007142857142857145</v>
+        <v>-0.00649350649350649</v>
       </c>
       <c r="S28" t="n">
-        <v>1.431578947368421</v>
+        <v>1.409090909090909</v>
       </c>
     </row>
     <row r="29">
@@ -23562,25 +23530,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4523703606773608</v>
+        <v>0.2596563563704499</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.7514691493021795</v>
+        <v>-1.127203723953269</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.4666666666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="H30" t="n">
         <v>28.33333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>-13.5</v>
+        <v>-12.3125</v>
       </c>
       <c r="J30" t="n">
-        <v>76.25</v>
+        <v>73.28125</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -23591,16 +23559,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.08982228242987289</v>
+        <v>0.08433010826709775</v>
       </c>
       <c r="N30" t="n">
-        <v>-1.696335915776761</v>
+        <v>-1.726096195000914</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.09387755102040816</v>
+        <v>-0.09551020408163265</v>
       </c>
       <c r="P30" t="n">
-        <v>-115</v>
+        <v>-117</v>
       </c>
       <c r="Q30" t="n">
         <v>4516.333333333333</v>
@@ -23692,25 +23660,25 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0003074487194687503</v>
+        <v>0.0003286653831615638</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.608941672913926</v>
+        <v>-3.591590991794148</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.3545918367346939</v>
+        <v>-0.352891156462585</v>
       </c>
       <c r="G32" t="n">
-        <v>-417</v>
+        <v>-415</v>
       </c>
       <c r="H32" t="n">
         <v>13287</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01889880952380953</v>
+        <v>-0.01841469428007889</v>
       </c>
       <c r="J32" t="n">
-        <v>1.953571428571429</v>
+        <v>1.941952662721893</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -23721,25 +23689,25 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0001201069962761814</v>
+        <v>0.0001286249985490429</v>
       </c>
       <c r="N32" t="n">
-        <v>-3.845907651741313</v>
+        <v>-3.829076546044414</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.3738775510204081</v>
+        <v>-0.3722448979591837</v>
       </c>
       <c r="P32" t="n">
-        <v>-458</v>
+        <v>-456</v>
       </c>
       <c r="Q32" t="n">
         <v>14120</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.01985111662531017</v>
+        <v>-0.01976190476190476</v>
       </c>
       <c r="S32" t="n">
-        <v>1.986352357320099</v>
+        <v>1.984166666666667</v>
       </c>
     </row>
     <row r="33">
@@ -23815,32 +23783,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>no trend</t>
+          <t>decreasing</t>
         </is>
       </c>
       <c r="C34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.05917206782585938</v>
+        <v>0.04760395472787149</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.886912706099453</v>
+        <v>-1.98088693354221</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.5277777777777778</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="G34" t="n">
-        <v>-19</v>
+        <v>-20</v>
       </c>
       <c r="H34" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.9097222222222221</v>
+        <v>-0.9096345029239765</v>
       </c>
       <c r="J34" t="n">
-        <v>9.888888888888889</v>
+        <v>9.888538011695907</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -23851,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08143717642620873</v>
+        <v>0.07929268984123383</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.742407431709553</v>
+        <v>-1.754804872741773</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.1151020408163265</v>
       </c>
       <c r="P34" t="n">
-        <v>-140</v>
+        <v>-141</v>
       </c>
       <c r="Q34" t="n">
-        <v>6364</v>
+        <v>6365</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23887,25 +23855,25 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1.127879776463558e-06</v>
+        <v>4.25911952262048e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>4.867904201618281</v>
+        <v>4.598319761637282</v>
       </c>
       <c r="F35" t="n">
-        <v>0.477891156462585</v>
+        <v>0.4506802721088435</v>
       </c>
       <c r="G35" t="n">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="H35" t="n">
-        <v>13281.33333333333</v>
+        <v>13234.66666666667</v>
       </c>
       <c r="I35" t="n">
-        <v>0.004390784653942549</v>
+        <v>0.004347826086956519</v>
       </c>
       <c r="J35" t="n">
-        <v>1.030984804669015</v>
+        <v>1.03201581027668</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -23916,25 +23884,25 @@
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>5.063361490087459e-06</v>
+        <v>1.708691967627907e-05</v>
       </c>
       <c r="N35" t="n">
-        <v>4.562145180343292</v>
+        <v>4.299907781385248</v>
       </c>
       <c r="O35" t="n">
-        <v>0.443265306122449</v>
+        <v>0.4171428571428571</v>
       </c>
       <c r="P35" t="n">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="Q35" t="n">
-        <v>14114.33333333333</v>
+        <v>14067.66666666667</v>
       </c>
       <c r="R35" t="n">
-        <v>0.004166666666666668</v>
+        <v>0.004132231404958694</v>
       </c>
       <c r="S35" t="n">
-        <v>1.028598484848485</v>
+        <v>1.02944214876033</v>
       </c>
     </row>
     <row r="36">
@@ -23952,25 +23920,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07161066222111456</v>
+        <v>0.08661204619734941</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.801585386034543</v>
+        <v>-1.713546500897555</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1868686868686869</v>
+        <v>-0.1777777777777778</v>
       </c>
       <c r="G36" t="n">
-        <v>-185</v>
+        <v>-176</v>
       </c>
       <c r="H36" t="n">
-        <v>10431</v>
+        <v>10430</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.007028128390357491</v>
+        <v>-0.006942837863890496</v>
       </c>
       <c r="J36" t="n">
-        <v>1.654618824587865</v>
+        <v>1.652742433005591</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -23981,25 +23949,25 @@
         <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>0.003167279500725817</v>
+        <v>0.004059933772387447</v>
       </c>
       <c r="N36" t="n">
-        <v>-2.951018495885042</v>
+        <v>-2.873467087855511</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.2916666666666667</v>
+        <v>-0.2840136054421769</v>
       </c>
       <c r="P36" t="n">
-        <v>-343</v>
+        <v>-334</v>
       </c>
       <c r="Q36" t="n">
-        <v>13431</v>
+        <v>13430</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.01282051282051282</v>
+        <v>-0.01214387464387465</v>
       </c>
       <c r="S36" t="n">
-        <v>1.807692307692308</v>
+        <v>1.791452991452992</v>
       </c>
     </row>
     <row r="37">
@@ -24082,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8066334191688587</v>
+        <v>0.87038469036184</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2447714267516615</v>
+        <v>-0.1631698676386967</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.02820512820512821</v>
+        <v>-0.01923076923076923</v>
       </c>
       <c r="G38" t="n">
-        <v>-22</v>
+        <v>-15</v>
       </c>
       <c r="H38" t="n">
-        <v>7360.666666666667</v>
+        <v>7361.666666666667</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.004276315789473686</v>
+        <v>-0.003101851851851856</v>
       </c>
       <c r="J38" t="n">
-        <v>2.79172149122807</v>
+        <v>2.768819444444444</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -24111,25 +24079,25 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.5620233585743886</v>
+        <v>0.5230568738923536</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5798387571754514</v>
+        <v>0.6386404295150233</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.06285714285714286</v>
       </c>
       <c r="P38" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q38" t="n">
-        <v>14160.66666666667</v>
+        <v>14161.66666666667</v>
       </c>
       <c r="R38" t="n">
-        <v>0.004166666666666663</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="S38" t="n">
-        <v>2.256891025641026</v>
+        <v>2.20958411507192</v>
       </c>
     </row>
     <row r="39">
@@ -24212,25 +24180,25 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1.444585611598548e-05</v>
+        <v>1.384249904878843e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>4.336972696489499</v>
+        <v>4.346344679647877</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4375578168362627</v>
+        <v>0.4384828862164662</v>
       </c>
       <c r="G40" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H40" t="n">
-        <v>11844.33333333333</v>
+        <v>11843.33333333333</v>
       </c>
       <c r="I40" t="n">
-        <v>0.06060606060606059</v>
+        <v>0.06071428571428572</v>
       </c>
       <c r="J40" t="n">
-        <v>1.320346320346321</v>
+        <v>1.317857142857143</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -24241,25 +24209,25 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>6.799837132920317e-06</v>
+        <v>6.531911947993407e-06</v>
       </c>
       <c r="N40" t="n">
-        <v>4.499859561519822</v>
+        <v>4.50839747669498</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4391836734693877</v>
+        <v>0.44</v>
       </c>
       <c r="P40" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q40" t="n">
-        <v>14241.33333333333</v>
+        <v>14240.33333333333</v>
       </c>
       <c r="R40" t="n">
-        <v>0.05909090909090909</v>
+        <v>0.05999999999999996</v>
       </c>
       <c r="S40" t="n">
-        <v>1.218939393939394</v>
+        <v>1.196666666666667</v>
       </c>
     </row>
     <row r="41">
@@ -24277,16 +24245,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6038372064135407</v>
+        <v>0.5863024233440191</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5188903516256052</v>
+        <v>0.5442020760951468</v>
       </c>
       <c r="F41" t="n">
-        <v>0.05668016194331984</v>
+        <v>0.05937921727395411</v>
       </c>
       <c r="G41" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H41" t="n">
         <v>6243.333333333333</v>
@@ -24306,25 +24274,25 @@
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0.00595184157923212</v>
+        <v>0.006271601560133178</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.75042279136975</v>
+        <v>-2.733232648923689</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.2620408163265306</v>
+        <v>-0.2604081632653061</v>
       </c>
       <c r="P41" t="n">
-        <v>-321</v>
+        <v>-319</v>
       </c>
       <c r="Q41" t="n">
         <v>13536.33333333333</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.004140786749482406</v>
+        <v>-0.004048582995951413</v>
       </c>
       <c r="S41" t="n">
-        <v>1.101449275362319</v>
+        <v>1.09919028340081</v>
       </c>
     </row>
     <row r="42">
@@ -24407,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9045931487783092</v>
+        <v>0.9863384743721191</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1198611393600707</v>
+        <v>-0.01712301990858153</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01720430107526882</v>
+        <v>-0.004301075268817204</v>
       </c>
       <c r="G43" t="n">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="H43" t="n">
         <v>3410.666666666667</v>
@@ -24436,16 +24404,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3976395336165661</v>
+        <v>0.369382397901092</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8458444344151057</v>
+        <v>0.8976308283588876</v>
       </c>
       <c r="O43" t="n">
-        <v>0.08081632653061224</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="P43" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q43" t="n">
         <v>13423.66666666667</v>
@@ -24537,25 +24505,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09640548319010378</v>
+        <v>0.08396356302146479</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.662535341964543</v>
+        <v>-1.728137570939267</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1921921921921922</v>
+        <v>-0.1996996996996997</v>
       </c>
       <c r="G45" t="n">
-        <v>-128</v>
+        <v>-133</v>
       </c>
       <c r="H45" t="n">
-        <v>5835.333333333333</v>
+        <v>5834.333333333333</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.08740079365079365</v>
+        <v>-0.09061986863711002</v>
       </c>
       <c r="J45" t="n">
-        <v>6.716071428571428</v>
+        <v>6.13115763546798</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -24566,25 +24534,25 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3888648041060887</v>
+        <v>0.3660223164425123</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.8616778747896403</v>
+        <v>-0.9039492423604065</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.08408163265306122</v>
+        <v>-0.08816326530612245</v>
       </c>
       <c r="P45" t="n">
-        <v>-103</v>
+        <v>-108</v>
       </c>
       <c r="Q45" t="n">
-        <v>14012.33333333333</v>
+        <v>14011.33333333333</v>
       </c>
       <c r="R45" t="n">
-        <v>-0.01923076923076923</v>
+        <v>-0.0238095238095238</v>
       </c>
       <c r="S45" t="n">
-        <v>3.596153846153846</v>
+        <v>3.708333333333333</v>
       </c>
     </row>
     <row r="46">
@@ -24732,25 +24700,25 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.006338263567942315</v>
+        <v>0.006960488304059043</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.729748622840912</v>
+        <v>-2.69872875212681</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.3352272727272727</v>
+        <v>-0.3314393939393939</v>
       </c>
       <c r="G48" t="n">
-        <v>-177</v>
+        <v>-175</v>
       </c>
       <c r="H48" t="n">
         <v>4157</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.238095238095238</v>
+        <v>-0.2277777777777778</v>
       </c>
       <c r="J48" t="n">
-        <v>7.523809523809522</v>
+        <v>7.358730158730159</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -24761,25 +24729,25 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.1742333540479164</v>
+        <v>0.1797142605546114</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.358726239646558</v>
+        <v>-1.341635343550375</v>
       </c>
       <c r="O48" t="n">
-        <v>-0.1306122448979592</v>
+        <v>-0.1289795918367347</v>
       </c>
       <c r="P48" t="n">
-        <v>-160</v>
+        <v>-158</v>
       </c>
       <c r="Q48" t="n">
         <v>13694</v>
       </c>
       <c r="R48" t="n">
-        <v>-0.01744186046511628</v>
+        <v>-0.01388888888888889</v>
       </c>
       <c r="S48" t="n">
-        <v>2.927325581395349</v>
+        <v>2.840277777777778</v>
       </c>
     </row>
     <row r="49">
@@ -24862,25 +24830,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2879609160192245</v>
+        <v>0.3251676675548927</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.062605446539807</v>
+        <v>-0.9838939319813027</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.1231231231231231</v>
+        <v>-0.1141141141141141</v>
       </c>
       <c r="G50" t="n">
-        <v>-82</v>
+        <v>-76</v>
       </c>
       <c r="H50" t="n">
         <v>5810.666666666667</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.05456349206349206</v>
+        <v>-0.04436188811188811</v>
       </c>
       <c r="J50" t="n">
-        <v>5.482142857142858</v>
+        <v>4.298513986013986</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -24891,25 +24859,25 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.3701147835446474</v>
+        <v>0.3978167919760165</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.8962583774720375</v>
+        <v>-0.8455267712000354</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.08734693877551021</v>
+        <v>-0.08244897959183674</v>
       </c>
       <c r="P50" t="n">
-        <v>-107</v>
+        <v>-101</v>
       </c>
       <c r="Q50" t="n">
         <v>13987.66666666667</v>
       </c>
       <c r="R50" t="n">
-        <v>-0.006172839506172834</v>
+        <v>-0.005208333333333315</v>
       </c>
       <c r="S50" t="n">
-        <v>3.151234567901235</v>
+        <v>3.127604166666666</v>
       </c>
     </row>
     <row r="51">
@@ -24992,19 +24960,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9030117789217456</v>
+        <v>0.8074887308352194</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1218576210580578</v>
+        <v>0.2436670031642618</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01484480431848853</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="G52" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>6734.333333333333</v>
+        <v>6737</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -25021,25 +24989,25 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.08347363682446551</v>
+        <v>0.09970450753558713</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.730877380093393</v>
+        <v>-1.646287860794313</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.1681632653061224</v>
+        <v>-0.16</v>
       </c>
       <c r="P52" t="n">
-        <v>-206</v>
+        <v>-196</v>
       </c>
       <c r="Q52" t="n">
-        <v>14027.33333333333</v>
+        <v>14030</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.03125</v>
+        <v>-0.02941176470588235</v>
       </c>
       <c r="S52" t="n">
-        <v>2.765625</v>
+        <v>2.620588235294118</v>
       </c>
     </row>
     <row r="53">
@@ -25057,25 +25025,25 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2630993983178744</v>
+        <v>0.3059967005578181</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.119095502582406</v>
+        <v>-1.023658294561151</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1317460317460317</v>
+        <v>-0.1206349206349206</v>
       </c>
       <c r="G53" t="n">
-        <v>-83</v>
+        <v>-76</v>
       </c>
       <c r="H53" t="n">
-        <v>5369</v>
+        <v>5368</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.0827485380116959</v>
+        <v>-0.0625</v>
       </c>
       <c r="J53" t="n">
-        <v>6.573099415204679</v>
+        <v>5.760416666666666</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -25086,19 +25054,19 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.5532188940840668</v>
+        <v>0.5935709817632466</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.5929436056978106</v>
+        <v>-0.5336683912127115</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.05795918367346939</v>
+        <v>-0.05224489795918368</v>
       </c>
       <c r="P53" t="n">
-        <v>-71</v>
+        <v>-64</v>
       </c>
       <c r="Q53" t="n">
-        <v>13937</v>
+        <v>13936</v>
       </c>
       <c r="R53" t="n">
         <v>0</v>
@@ -25122,25 +25090,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6695954839383691</v>
+        <v>0.7009252497208278</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4267032488194875</v>
+        <v>-0.3840717759710173</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.05210084033613446</v>
+        <v>-0.04705882352941176</v>
       </c>
       <c r="G54" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="H54" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.03846153846153846</v>
+        <v>-0.02857142857142847</v>
       </c>
       <c r="J54" t="n">
-        <v>6.653846153846154</v>
+        <v>6.485714285714284</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -25151,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.5693955982394043</v>
+        <v>0.5867949218114714</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.5689418573412406</v>
+        <v>-0.54348644413967</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.05551020408163265</v>
+        <v>-0.05306122448979592</v>
       </c>
       <c r="P54" t="n">
-        <v>-68</v>
+        <v>-65</v>
       </c>
       <c r="Q54" t="n">
-        <v>13868</v>
+        <v>13867</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -25187,19 +25155,19 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9297614545149593</v>
+        <v>0.9921847352902065</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.08814497005648769</v>
+        <v>0.009795138377387054</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.0101010101010101</v>
+        <v>0.00202020202020202</v>
       </c>
       <c r="G55" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>10425.33333333333</v>
+        <v>10422.66666666667</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -25216,25 +25184,25 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3928546057728068</v>
+        <v>0.450849961311439</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.854451979383098</v>
+        <v>-0.7539987683455693</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.08408163265306122</v>
+        <v>-0.07428571428571429</v>
       </c>
       <c r="P55" t="n">
-        <v>-103</v>
+        <v>-91</v>
       </c>
       <c r="Q55" t="n">
-        <v>14250.33333333333</v>
+        <v>14247.66666666667</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.01818181818181818</v>
+        <v>-0.01538461538461536</v>
       </c>
       <c r="S55" t="n">
-        <v>3.289898989898989</v>
+        <v>3.11025641025641</v>
       </c>
     </row>
     <row r="56">
@@ -25317,25 +25285,25 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8012600157920555</v>
+        <v>0.8502476044245857</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2517167414285602</v>
+        <v>-0.1888025101334715</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.02987197724039829</v>
+        <v>-0.02275960170697013</v>
       </c>
       <c r="G57" t="n">
-        <v>-21</v>
+        <v>-16</v>
       </c>
       <c r="H57" t="n">
-        <v>6313</v>
+        <v>6312</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.01041666666666663</v>
+        <v>-0.00555555555555561</v>
       </c>
       <c r="J57" t="n">
-        <v>4.401041666666667</v>
+        <v>4.311111111111113</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -25346,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.959650681007624</v>
+        <v>0.9260980444083935</v>
       </c>
       <c r="N57" t="n">
-        <v>0.05059194570070566</v>
+        <v>0.09275519788629666</v>
       </c>
       <c r="O57" t="n">
-        <v>0.005714285714285714</v>
+        <v>0.009795918367346938</v>
       </c>
       <c r="P57" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q57" t="n">
-        <v>14065</v>
+        <v>14064</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>3.375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="58">
@@ -25462,10 +25430,10 @@
         <v>4943</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.01136363636363639</v>
+        <v>-0.0119047619047619</v>
       </c>
       <c r="J59" t="n">
-        <v>2.393181818181819</v>
+        <v>2.402380952380952</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -25491,10 +25459,10 @@
         <v>5829.666666666667</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.0107975357975358</v>
+        <v>-0.01117632367632369</v>
       </c>
       <c r="S59" t="n">
-        <v>2.337212787212787</v>
+        <v>2.344030969030969</v>
       </c>
     </row>
     <row r="60">
@@ -25512,25 +25480,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.741535244360739</v>
+        <v>0.4580284620802866</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3298209661140196</v>
+        <v>-0.742097173756544</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.06617647058823529</v>
+        <v>-0.1397058823529412</v>
       </c>
       <c r="G60" t="n">
-        <v>-9</v>
+        <v>-19</v>
       </c>
       <c r="H60" t="n">
         <v>588.3333333333334</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1277777777777778</v>
+        <v>-0.219047619047619</v>
       </c>
       <c r="J60" t="n">
-        <v>11.62222222222222</v>
+        <v>12.25238095238095</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -25541,16 +25509,16 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.7315412774712367</v>
+        <v>0.8976318278433146</v>
       </c>
       <c r="N60" t="n">
-        <v>0.3430760111480943</v>
+        <v>0.1286535041805354</v>
       </c>
       <c r="O60" t="n">
-        <v>0.04843304843304843</v>
+        <v>0.01994301994301994</v>
       </c>
       <c r="P60" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q60" t="n">
         <v>2175</v>
@@ -25577,16 +25545,16 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3212485325311094</v>
+        <v>0.3383680566565126</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9918954425557928</v>
+        <v>-0.9573947315103739</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.09863945578231292</v>
+        <v>-0.09523809523809523</v>
       </c>
       <c r="G61" t="n">
-        <v>-116</v>
+        <v>-112</v>
       </c>
       <c r="H61" t="n">
         <v>13442</v>
@@ -25606,16 +25574,16 @@
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0.234635294692068</v>
+        <v>0.2480805772159791</v>
       </c>
       <c r="N61" t="n">
-        <v>-1.188503009905072</v>
+        <v>-1.155024051879577</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.116734693877551</v>
+        <v>-0.113469387755102</v>
       </c>
       <c r="P61" t="n">
-        <v>-143</v>
+        <v>-139</v>
       </c>
       <c r="Q61" t="n">
         <v>14275</v>
@@ -25642,22 +25610,22 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6777940356985233</v>
+        <v>0.6963184761802164</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4154752419041555</v>
+        <v>-0.3902949242129945</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.04836415362731152</v>
+        <v>-0.04551920341394026</v>
       </c>
       <c r="G62" t="n">
-        <v>-34</v>
+        <v>-32</v>
       </c>
       <c r="H62" t="n">
         <v>6308.666666666667</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.005555555555555551</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="J62" t="n">
         <v>2.702777777777778</v>
@@ -25671,25 +25639,25 @@
         <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>0.632422115054355</v>
+        <v>0.6491180281403381</v>
       </c>
       <c r="N62" t="n">
-        <v>-0.478320489714841</v>
+        <v>-0.4549877828994829</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.05384615384615385</v>
+        <v>-0.05128205128205128</v>
       </c>
       <c r="P62" t="n">
-        <v>-42</v>
+        <v>-40</v>
       </c>
       <c r="Q62" t="n">
         <v>7347.333333333333</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.00699643493761141</v>
+        <v>-0.006738250855897914</v>
       </c>
       <c r="S62" t="n">
-        <v>2.586430481283423</v>
+        <v>2.581395891690009</v>
       </c>
     </row>
     <row r="63">
@@ -25707,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1654610089723052</v>
+        <v>0.1654253250268196</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.386936886004291</v>
+        <v>-1.387053908987104</v>
       </c>
       <c r="F63" t="n">
         <v>-0.1406105457909343</v>
@@ -25719,13 +25687,13 @@
         <v>-152</v>
       </c>
       <c r="H63" t="n">
-        <v>11853.33333333333</v>
+        <v>11851.33333333333</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.01710526315789474</v>
+        <v>-0.01666666666666683</v>
       </c>
       <c r="J63" t="n">
-        <v>2.393421052631579</v>
+        <v>2.383333333333337</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -25736,10 +25704,10 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.07971438732186664</v>
+        <v>0.07969194804728863</v>
       </c>
       <c r="N63" t="n">
-        <v>-1.752345670871917</v>
+        <v>-1.75247626264248</v>
       </c>
       <c r="O63" t="n">
         <v>-0.173469387755102</v>
@@ -25748,13 +25716,13 @@
         <v>-204</v>
       </c>
       <c r="Q63" t="n">
-        <v>13420</v>
+        <v>13418</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.02264835858585858</v>
+        <v>-0.02255123348873348</v>
       </c>
       <c r="S63" t="n">
-        <v>2.543560606060606</v>
+        <v>2.541229603729604</v>
       </c>
     </row>
     <row r="64">
@@ -25787,10 +25755,10 @@
         <v>3436.666666666667</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.03571428571428571</v>
+        <v>-0.03508771929824562</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.240601503759398</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -25816,10 +25784,10 @@
         <v>13449.66666666667</v>
       </c>
       <c r="R64" t="n">
-        <v>-0.04545454545454546</v>
+        <v>-0.04504504504504505</v>
       </c>
       <c r="S64" t="n">
-        <v>2.613636363636364</v>
+        <v>2.603603603603604</v>
       </c>
     </row>
     <row r="65">
@@ -25837,16 +25805,16 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9627113687946671</v>
+        <v>0.9813505907860645</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.04675139376626524</v>
+        <v>-0.02337569688313262</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.00641025641025641</v>
+        <v>-0.003846153846153846</v>
       </c>
       <c r="G65" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="H65" t="n">
         <v>7320.333333333333</v>
@@ -25866,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.2168305232908683</v>
+        <v>0.2239849413111117</v>
       </c>
       <c r="N65" t="n">
-        <v>-1.23499994854167</v>
+        <v>-1.215999949333336</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.1265700483091788</v>
+        <v>-0.1246376811594203</v>
       </c>
       <c r="P65" t="n">
-        <v>-131</v>
+        <v>-129</v>
       </c>
       <c r="Q65" t="n">
         <v>11080.33333333333</v>
@@ -25902,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05205400555710149</v>
+        <v>0.0543204030630422</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.942686853944661</v>
+        <v>-1.924272760542342</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.1961147086031452</v>
+        <v>-0.1942645698427382</v>
       </c>
       <c r="G66" t="n">
-        <v>-212</v>
+        <v>-210</v>
       </c>
       <c r="H66" t="n">
         <v>11796.66666666667</v>
@@ -25931,16 +25899,16 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01179879115820448</v>
+        <v>0.01237319107370372</v>
       </c>
       <c r="N66" t="n">
-        <v>-2.518105686908383</v>
+        <v>-2.501318315662327</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.2457142857142857</v>
+        <v>-0.2440816326530612</v>
       </c>
       <c r="P66" t="n">
-        <v>-301</v>
+        <v>-299</v>
       </c>
       <c r="Q66" t="n">
         <v>14193.66666666667</v>
@@ -26032,25 +26000,25 @@
         <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0.01965333472546837</v>
+        <v>0.035994479558906</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.332901136475353</v>
+        <v>-2.096989785595823</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.2687687687687688</v>
+        <v>-0.2417417417417417</v>
       </c>
       <c r="G68" t="n">
-        <v>-179</v>
+        <v>-161</v>
       </c>
       <c r="H68" t="n">
         <v>5821.666666666667</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.06666666666666668</v>
+        <v>-0.05952380952380953</v>
       </c>
       <c r="J68" t="n">
-        <v>3.866666666666667</v>
+        <v>3.738095238095238</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -26061,25 +26029,25 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.05409380874486946</v>
+        <v>0.08616821107335682</v>
       </c>
       <c r="N68" t="n">
-        <v>-1.926084619690761</v>
+        <v>-1.715966297542678</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.2128205128205128</v>
+        <v>-0.1897435897435897</v>
       </c>
       <c r="P68" t="n">
-        <v>-166</v>
+        <v>-148</v>
       </c>
       <c r="Q68" t="n">
         <v>7338.666666666667</v>
       </c>
       <c r="R68" t="n">
-        <v>-0.05555555555555555</v>
+        <v>-0.04761904761904763</v>
       </c>
       <c r="S68" t="n">
-        <v>3.583333333333333</v>
+        <v>3.428571428571429</v>
       </c>
     </row>
     <row r="69">
@@ -26292,25 +26260,25 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0673882557462091</v>
+        <v>0.06459801177419533</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.829075786412682</v>
+        <v>-1.848029939639756</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.18743961352657</v>
+        <v>-0.1893719806763285</v>
       </c>
       <c r="G72" t="n">
-        <v>-194</v>
+        <v>-196</v>
       </c>
       <c r="H72" t="n">
         <v>11134</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.01923076923076922</v>
+        <v>-0.01992753623188406</v>
       </c>
       <c r="J72" t="n">
-        <v>2.432692307692307</v>
+        <v>2.448369565217392</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -26321,25 +26289,25 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0673882557462091</v>
+        <v>0.06459801177419533</v>
       </c>
       <c r="N72" t="n">
-        <v>-1.829075786412682</v>
+        <v>-1.848029939639756</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.18743961352657</v>
+        <v>-0.1893719806763285</v>
       </c>
       <c r="P72" t="n">
-        <v>-194</v>
+        <v>-196</v>
       </c>
       <c r="Q72" t="n">
         <v>11134</v>
       </c>
       <c r="R72" t="n">
-        <v>-0.01923076923076922</v>
+        <v>-0.01992753623188406</v>
       </c>
       <c r="S72" t="n">
-        <v>2.432692307692307</v>
+        <v>2.448369565217392</v>
       </c>
     </row>
     <row r="73">
@@ -26422,25 +26390,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07043057325355284</v>
+        <v>0.1115942557287304</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.809131520161835</v>
+        <v>-1.591068077566588</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1771428571428571</v>
+        <v>-0.1559183673469388</v>
       </c>
       <c r="G74" t="n">
-        <v>-217</v>
+        <v>-191</v>
       </c>
       <c r="H74" t="n">
-        <v>14255</v>
+        <v>14260.33333333333</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.01621621621621622</v>
+        <v>-0.01515151515151516</v>
       </c>
       <c r="J74" t="n">
-        <v>2.515352852852853</v>
+        <v>2.489267676767677</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -26451,25 +26419,25 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.07043057325355284</v>
+        <v>0.1115942557287304</v>
       </c>
       <c r="N74" t="n">
-        <v>-1.809131520161835</v>
+        <v>-1.591068077566588</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.1771428571428571</v>
+        <v>-0.1559183673469388</v>
       </c>
       <c r="P74" t="n">
-        <v>-217</v>
+        <v>-191</v>
       </c>
       <c r="Q74" t="n">
-        <v>14255</v>
+        <v>14260.33333333333</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.01621621621621622</v>
+        <v>-0.01515151515151516</v>
       </c>
       <c r="S74" t="n">
-        <v>2.515352852852853</v>
+        <v>2.489267676767677</v>
       </c>
     </row>
     <row r="75">
@@ -26480,32 +26448,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="C75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.04369436329159648</v>
+        <v>0.05569626037389441</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.017011020181082</v>
+        <v>-1.913404721903722</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.2442067736185383</v>
+        <v>-0.231729055258467</v>
       </c>
       <c r="G75" t="n">
-        <v>-137</v>
+        <v>-130</v>
       </c>
       <c r="H75" t="n">
-        <v>4546.333333333333</v>
+        <v>4545.333333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.1574074074074074</v>
       </c>
       <c r="J75" t="n">
-        <v>8.750000000000002</v>
+        <v>8.597222222222221</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -26516,25 +26484,25 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.2138347496335542</v>
+        <v>0.2365981780981341</v>
       </c>
       <c r="N75" t="n">
-        <v>-1.243089784861759</v>
+        <v>-1.183532489702232</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.12</v>
+        <v>-0.1142857142857143</v>
       </c>
       <c r="P75" t="n">
-        <v>-147</v>
+        <v>-140</v>
       </c>
       <c r="Q75" t="n">
-        <v>13794.33333333333</v>
+        <v>13793.33333333333</v>
       </c>
       <c r="R75" t="n">
-        <v>-0.02380952380952382</v>
+        <v>-0.01829268292682927</v>
       </c>
       <c r="S75" t="n">
-        <v>4.36904761904762</v>
+        <v>4.233885017421603</v>
       </c>
     </row>
     <row r="76">
@@ -26552,25 +26520,25 @@
         <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>0.002911287303404286</v>
+        <v>0.004773957397188333</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.976952901476674</v>
+        <v>-2.82190327119143</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.365530303030303</v>
+        <v>-0.3465909090909091</v>
       </c>
       <c r="G76" t="n">
-        <v>-193</v>
+        <v>-183</v>
       </c>
       <c r="H76" t="n">
         <v>4159.666666666667</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.1641941391941392</v>
+        <v>-0.1378571428571428</v>
       </c>
       <c r="J76" t="n">
-        <v>7.293772893772894</v>
+        <v>6.705714285714286</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -26581,25 +26549,25 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.08589372518444538</v>
+        <v>0.102674918900244</v>
       </c>
       <c r="N76" t="n">
-        <v>-1.717467842415066</v>
+        <v>-1.632021681100883</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.1648979591836735</v>
+        <v>-0.156734693877551</v>
       </c>
       <c r="P76" t="n">
-        <v>-202</v>
+        <v>-192</v>
       </c>
       <c r="Q76" t="n">
         <v>13696.66666666667</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.0332512315270936</v>
+        <v>-0.02777777777777779</v>
       </c>
       <c r="S76" t="n">
-        <v>3.564655172413793</v>
+        <v>3.430555555555556</v>
       </c>
     </row>
     <row r="77">
@@ -26617,25 +26585,25 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.009110268270986932</v>
+        <v>0.01151748232985383</v>
       </c>
       <c r="E77" t="n">
-        <v>-2.607888280318945</v>
+        <v>-2.526593203429869</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3047619047619048</v>
+        <v>-0.2952380952380952</v>
       </c>
       <c r="G77" t="n">
-        <v>-192</v>
+        <v>-186</v>
       </c>
       <c r="H77" t="n">
-        <v>5364</v>
+        <v>5361.333333333333</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.1603571428571428</v>
+        <v>-0.15</v>
       </c>
       <c r="J77" t="n">
-        <v>7.806249999999999</v>
+        <v>7.625</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -26646,25 +26614,25 @@
         <v>1</v>
       </c>
       <c r="M77" t="n">
-        <v>0.02369356514662613</v>
+        <v>0.02700531873726919</v>
       </c>
       <c r="N77" t="n">
-        <v>-2.262062126600302</v>
+        <v>-2.211440921344652</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.2187755102040816</v>
+        <v>-0.2138775510204082</v>
       </c>
       <c r="P77" t="n">
-        <v>-268</v>
+        <v>-262</v>
       </c>
       <c r="Q77" t="n">
-        <v>13932</v>
+        <v>13929.33333333333</v>
       </c>
       <c r="R77" t="n">
-        <v>-0.09375</v>
+        <v>-0.09090909090909091</v>
       </c>
       <c r="S77" t="n">
-        <v>5.296875</v>
+        <v>5.227272727272728</v>
       </c>
     </row>
     <row r="78">
@@ -26682,25 +26650,25 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>0.02179497167446365</v>
+        <v>0.02622200694880994</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.293922135935055</v>
+        <v>-2.222907959622781</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.2722689075630252</v>
+        <v>-0.2638655462184874</v>
       </c>
       <c r="G78" t="n">
-        <v>-162</v>
+        <v>-157</v>
       </c>
       <c r="H78" t="n">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.1857142857142857</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="J78" t="n">
-        <v>8.823809523809524</v>
+        <v>7.261904761904762</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -26711,25 +26679,25 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.003467584854997652</v>
+        <v>0.003969870464890057</v>
       </c>
       <c r="N78" t="n">
-        <v>-2.922926387091602</v>
+        <v>-2.880545977128952</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.2816326530612245</v>
+        <v>-0.2775510204081633</v>
       </c>
       <c r="P78" t="n">
-        <v>-345</v>
+        <v>-340</v>
       </c>
       <c r="Q78" t="n">
-        <v>13851</v>
+        <v>13850</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.1142857142857143</v>
+        <v>-0.1111111111111111</v>
       </c>
       <c r="S78" t="n">
-        <v>4.966666666666667</v>
+        <v>4.888888888888889</v>
       </c>
     </row>
     <row r="79">
@@ -26747,25 +26715,25 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09106494664918663</v>
+        <v>0.1270119701065686</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.689806673623378</v>
+        <v>-1.525991545245777</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.1920341394025604</v>
+        <v>-0.1735419630156472</v>
       </c>
       <c r="G79" t="n">
-        <v>-135</v>
+        <v>-122</v>
       </c>
       <c r="H79" t="n">
-        <v>6288.333333333333</v>
+        <v>6287.333333333333</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.06818181818181818</v>
+        <v>-0.05357142857142856</v>
       </c>
       <c r="J79" t="n">
-        <v>4.761363636363637</v>
+        <v>4.324404761904762</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -26776,25 +26744,25 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0981028629050622</v>
+        <v>0.122475916747931</v>
       </c>
       <c r="N79" t="n">
-        <v>-1.654121330534937</v>
+        <v>-1.544464203428849</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.1608163265306123</v>
+        <v>-0.1502040816326531</v>
       </c>
       <c r="P79" t="n">
-        <v>-197</v>
+        <v>-184</v>
       </c>
       <c r="Q79" t="n">
-        <v>14040.33333333333</v>
+        <v>14039.33333333333</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0386904761904762</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="S79" t="n">
-        <v>3.447916666666667</v>
+        <v>3.316666666666666</v>
       </c>
     </row>
     <row r="80">
@@ -26812,25 +26780,25 @@
         <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02074008371351077</v>
+        <v>0.03167654310744838</v>
       </c>
       <c r="E80" t="n">
-        <v>-2.312682830104288</v>
+        <v>-2.148468664653095</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2698412698412698</v>
+        <v>-0.2507936507936508</v>
       </c>
       <c r="G80" t="n">
-        <v>-170</v>
+        <v>-158</v>
       </c>
       <c r="H80" t="n">
         <v>5340</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.1254464285714286</v>
+        <v>-0.1121031746031746</v>
       </c>
       <c r="J80" t="n">
-        <v>6.0703125</v>
+        <v>5.670138888888889</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -26841,25 +26809,25 @@
         <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>0.03192881032466821</v>
+        <v>0.04099828670084538</v>
       </c>
       <c r="N80" t="n">
-        <v>-2.145300728164975</v>
+        <v>-2.043547333943711</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.2073469387755102</v>
+        <v>-0.1975510204081633</v>
       </c>
       <c r="P80" t="n">
-        <v>-254</v>
+        <v>-242</v>
       </c>
       <c r="Q80" t="n">
         <v>13908</v>
       </c>
       <c r="R80" t="n">
-        <v>-0.05942028985507249</v>
+        <v>-0.0555555555555555</v>
       </c>
       <c r="S80" t="n">
-        <v>3.539130434782609</v>
+        <v>3.444444444444443</v>
       </c>
     </row>
     <row r="81">
@@ -26877,25 +26845,25 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02427940217129865</v>
+        <v>0.02604390889883224</v>
       </c>
       <c r="E81" t="n">
-        <v>-2.252678901759246</v>
+        <v>-2.225556406976056</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.2225177304964539</v>
+        <v>-0.2198581560283688</v>
       </c>
       <c r="G81" t="n">
-        <v>-251</v>
+        <v>-248</v>
       </c>
       <c r="H81" t="n">
-        <v>12316.33333333333</v>
+        <v>12317.33333333333</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.01606658923732094</v>
+        <v>-0.01515151515151515</v>
       </c>
       <c r="J81" t="n">
-        <v>1.977564847077042</v>
+        <v>1.956060606060606</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -26906,25 +26874,25 @@
         <v>1</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02539531329129407</v>
+        <v>0.0271152261629477</v>
       </c>
       <c r="N81" t="n">
-        <v>-2.235335771794875</v>
+        <v>-2.209855014616154</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.2163265306122449</v>
+        <v>-0.2138775510204082</v>
       </c>
       <c r="P81" t="n">
-        <v>-265</v>
+        <v>-262</v>
       </c>
       <c r="Q81" t="n">
-        <v>13948.33333333333</v>
+        <v>13949.33333333333</v>
       </c>
       <c r="R81" t="n">
-        <v>-0.01666666666666667</v>
+        <v>-0.01515151515151516</v>
       </c>
       <c r="S81" t="n">
-        <v>1.994047619047619</v>
+        <v>1.956926406926407</v>
       </c>
     </row>
     <row r="82">
@@ -26942,25 +26910,25 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2034216758219993</v>
+        <v>0.2527729934017175</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.271863349633043</v>
+        <v>-1.143639933469499</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.141025641025641</v>
+        <v>-0.1269230769230769</v>
       </c>
       <c r="G82" t="n">
-        <v>-110</v>
+        <v>-99</v>
       </c>
       <c r="H82" t="n">
-        <v>7344.666666666667</v>
+        <v>7343</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.04379795396419438</v>
+        <v>-0.03867521367521368</v>
       </c>
       <c r="J82" t="n">
-        <v>5.041560102301791</v>
+        <v>4.941666666666666</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -26971,25 +26939,25 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.4958302652224462</v>
+        <v>0.5561232576972659</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.6810651533667749</v>
+        <v>-0.5886095028600051</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.06693877551020408</v>
+        <v>-0.05795918367346939</v>
       </c>
       <c r="P82" t="n">
-        <v>-82</v>
+        <v>-71</v>
       </c>
       <c r="Q82" t="n">
-        <v>14144.66666666667</v>
+        <v>14143</v>
       </c>
       <c r="R82" t="n">
-        <v>-0.01219512195121951</v>
+        <v>-0.00641025641025641</v>
       </c>
       <c r="S82" t="n">
-        <v>3.548780487804878</v>
+        <v>3.282051282051282</v>
       </c>
     </row>
     <row r="83">
@@ -27007,25 +26975,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.05205781507391327</v>
+        <v>0.06677135131003875</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.942655344755814</v>
+        <v>-1.833209973220275</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.226984126984127</v>
+        <v>-0.2142857142857143</v>
       </c>
       <c r="G83" t="n">
-        <v>-143</v>
+        <v>-135</v>
       </c>
       <c r="H83" t="n">
         <v>5343</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.0850340136054422</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="J83" t="n">
-        <v>5.071428571428571</v>
+        <v>5.041666666666666</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -27036,25 +27004,25 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.05534614009993311</v>
+        <v>0.0645559684984105</v>
       </c>
       <c r="N83" t="n">
-        <v>-1.916148942588198</v>
+        <v>-1.848320661434634</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.1853061224489796</v>
+        <v>-0.1787755102040816</v>
       </c>
       <c r="P83" t="n">
-        <v>-227</v>
+        <v>-219</v>
       </c>
       <c r="Q83" t="n">
         <v>13911</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.04761904761904762</v>
+        <v>-0.04411764705882353</v>
       </c>
       <c r="S83" t="n">
-        <v>3.166666666666667</v>
+        <v>3.080882352941177</v>
       </c>
     </row>
     <row r="84">
@@ -27072,25 +27040,25 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8155772652410531</v>
+        <v>0.8428306587582226</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2332371428471065</v>
+        <v>-0.198274043572029</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.02692307692307692</v>
+        <v>-0.02307692307692308</v>
       </c>
       <c r="G84" t="n">
-        <v>-21</v>
+        <v>-18</v>
       </c>
       <c r="H84" t="n">
-        <v>7353</v>
+        <v>7351.333333333333</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.01257086167800454</v>
+        <v>-0.008901960784313732</v>
       </c>
       <c r="J84" t="n">
-        <v>3.795131802721088</v>
+        <v>3.723588235294117</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -27101,25 +27069,25 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.4196949116757491</v>
+        <v>0.4343441812359154</v>
       </c>
       <c r="N84" t="n">
-        <v>-0.8069506573427242</v>
+        <v>-0.7817794820911714</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.07918367346938776</v>
+        <v>-0.07673469387755102</v>
       </c>
       <c r="P84" t="n">
-        <v>-97</v>
+        <v>-94</v>
       </c>
       <c r="Q84" t="n">
-        <v>14153</v>
+        <v>14151.33333333333</v>
       </c>
       <c r="R84" t="n">
-        <v>-0.01960784313725491</v>
+        <v>-0.01734693877551021</v>
       </c>
       <c r="S84" t="n">
-        <v>3.533963585434174</v>
+        <v>3.103571428571429</v>
       </c>
     </row>
     <row r="85">
@@ -27202,19 +27170,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.8373332467221091</v>
+        <v>0.7842015053919202</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2053057566236277</v>
+        <v>0.273847907599156</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02795698924731183</v>
+        <v>0.03655913978494624</v>
       </c>
       <c r="G86" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H86" t="n">
-        <v>3416.333333333333</v>
+        <v>3413.666666666667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -27231,25 +27199,25 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.6072111191167533</v>
+        <v>0.6476242316626926</v>
       </c>
       <c r="N86" t="n">
-        <v>-0.5140584597568423</v>
+        <v>-0.4570651315863755</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.06218487394957983</v>
+        <v>-0.05546218487394958</v>
       </c>
       <c r="P86" t="n">
-        <v>-37</v>
+        <v>-33</v>
       </c>
       <c r="Q86" t="n">
-        <v>4904.333333333333</v>
+        <v>4901.666666666667</v>
       </c>
       <c r="R86" t="n">
-        <v>-0.009615384615384616</v>
+        <v>-0.00541125541125546</v>
       </c>
       <c r="S86" t="n">
-        <v>2.330128205128205</v>
+        <v>2.091991341991343</v>
       </c>
     </row>
     <row r="87">
@@ -27347,10 +27315,10 @@
         <v>13410</v>
       </c>
       <c r="I88" t="n">
-        <v>-0.01851851851851852</v>
+        <v>-0.01818783068783068</v>
       </c>
       <c r="J88" t="n">
-        <v>3.444444444444445</v>
+        <v>3.436507936507936</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -27376,10 +27344,10 @@
         <v>14243</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.02</v>
+        <v>-0.01851851851851851</v>
       </c>
       <c r="S88" t="n">
-        <v>3.49</v>
+        <v>3.453703703703704</v>
       </c>
     </row>
     <row r="89">
@@ -27397,16 +27365,16 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6441597783305166</v>
+        <v>0.6280865187199871</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.4618905957183624</v>
+        <v>-0.4844218442899899</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.05121951219512195</v>
+        <v>-0.05365853658536585</v>
       </c>
       <c r="G89" t="n">
-        <v>-42</v>
+        <v>-44</v>
       </c>
       <c r="H89" t="n">
         <v>7879.333333333333</v>
@@ -27426,25 +27394,25 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.2073484458568795</v>
+        <v>0.2013545313897187</v>
       </c>
       <c r="N89" t="n">
-        <v>-1.26089009909859</v>
+        <v>-1.277701967086571</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.123265306122449</v>
+        <v>-0.1248979591836735</v>
       </c>
       <c r="P89" t="n">
-        <v>-151</v>
+        <v>-153</v>
       </c>
       <c r="Q89" t="n">
         <v>14152.33333333333</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.03409090909090909</v>
+        <v>-0.03333333333333333</v>
       </c>
       <c r="S89" t="n">
-        <v>4.001893939393939</v>
+        <v>3.816666666666666</v>
       </c>
     </row>
     <row r="90">
@@ -27462,25 +27430,25 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.697968340651717</v>
+        <v>0.7851077107849431</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.3880644480500918</v>
+        <v>-0.272668942293591</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.04208194905869325</v>
+        <v>-0.02990033222591362</v>
       </c>
       <c r="G90" t="n">
-        <v>-38</v>
+        <v>-27</v>
       </c>
       <c r="H90" t="n">
-        <v>9090.666666666666</v>
+        <v>9092.333333333334</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.00649350649350651</v>
+        <v>-0.001623376623376638</v>
       </c>
       <c r="J90" t="n">
-        <v>3.636363636363637</v>
+        <v>3.534090909090909</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -27491,25 +27459,25 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.4502133306168861</v>
+        <v>0.5074999639729521</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.7550594193775082</v>
+        <v>-0.6627355084295947</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.07428571428571429</v>
+        <v>-0.0653061224489796</v>
       </c>
       <c r="P90" t="n">
-        <v>-91</v>
+        <v>-80</v>
       </c>
       <c r="Q90" t="n">
-        <v>14207.66666666667</v>
+        <v>14209.33333333333</v>
       </c>
       <c r="R90" t="n">
-        <v>-0.01515151515151515</v>
+        <v>-0.01234567901234569</v>
       </c>
       <c r="S90" t="n">
-        <v>3.583333333333333</v>
+        <v>3.347923681257015</v>
       </c>
     </row>
     <row r="91">
@@ -27592,25 +27560,25 @@
         <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02577378137779562</v>
+        <v>0.03618609321036548</v>
       </c>
       <c r="E92" t="n">
-        <v>-2.22960343857392</v>
+        <v>-2.094830157925532</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2426829268292683</v>
+        <v>-0.2280487804878049</v>
       </c>
       <c r="G92" t="n">
-        <v>-199</v>
+        <v>-187</v>
       </c>
       <c r="H92" t="n">
-        <v>7886.333333333333</v>
+        <v>7883.666666666667</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.04485645933014354</v>
+        <v>-0.04123728871203619</v>
       </c>
       <c r="J92" t="n">
-        <v>4.397129186602871</v>
+        <v>4.279291228786178</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -27621,25 +27589,25 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.2565762600617842</v>
+        <v>0.3012429387848221</v>
       </c>
       <c r="N92" t="n">
-        <v>-1.13452054668516</v>
+        <v>-1.0337716269968</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.1110204081632653</v>
+        <v>-0.1012244897959184</v>
       </c>
       <c r="P92" t="n">
-        <v>-136</v>
+        <v>-124</v>
       </c>
       <c r="Q92" t="n">
-        <v>14159.33333333333</v>
+        <v>14156.66666666667</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.01715686274509803</v>
+        <v>-0.01574074074074074</v>
       </c>
       <c r="S92" t="n">
-        <v>3.420343137254902</v>
+        <v>3.330092592592593</v>
       </c>
     </row>
     <row r="93">
@@ -27657,25 +27625,25 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5207874602821367</v>
+        <v>0.537267453575383</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.6421320305864958</v>
+        <v>-0.6169503823282018</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.07396870554765292</v>
+        <v>-0.07112375533428165</v>
       </c>
       <c r="G93" t="n">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="H93" t="n">
         <v>6308</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.02525252525252525</v>
+        <v>-0.02083333333333334</v>
       </c>
       <c r="J93" t="n">
-        <v>4.633838383838383</v>
+        <v>4.552083333333333</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -27686,16 +27654,16 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.3943348207483177</v>
+        <v>0.403765275548212</v>
       </c>
       <c r="N93" t="n">
-        <v>-0.8517825005040941</v>
+        <v>-0.8349155202960923</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.08326530612244898</v>
+        <v>-0.08163265306122448</v>
       </c>
       <c r="P93" t="n">
-        <v>-102</v>
+        <v>-100</v>
       </c>
       <c r="Q93" t="n">
         <v>14060</v>
@@ -27852,25 +27820,25 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4075581618955364</v>
+        <v>0.4840282661928068</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.8281983786670348</v>
+        <v>-0.699838343053503</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.09230769230769231</v>
+        <v>-0.0782051282051282</v>
       </c>
       <c r="G96" t="n">
-        <v>-72</v>
+        <v>-61</v>
       </c>
       <c r="H96" t="n">
-        <v>7349.333333333333</v>
+        <v>7350.333333333333</v>
       </c>
       <c r="I96" t="n">
-        <v>-0.02702922077922077</v>
+        <v>-0.02204861111111111</v>
       </c>
       <c r="J96" t="n">
-        <v>3.860403138528138</v>
+        <v>3.513281249999999</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -27881,25 +27849,25 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2228481260837885</v>
+        <v>0.2599646205919359</v>
       </c>
       <c r="N96" t="n">
-        <v>-1.218989636187406</v>
+        <v>-1.126474754404912</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.1191836734693878</v>
+        <v>-0.1102040816326531</v>
       </c>
       <c r="P96" t="n">
-        <v>-146</v>
+        <v>-135</v>
       </c>
       <c r="Q96" t="n">
-        <v>14149.33333333333</v>
+        <v>14150.33333333333</v>
       </c>
       <c r="R96" t="n">
-        <v>-0.02962962962962962</v>
+        <v>-0.025</v>
       </c>
       <c r="S96" t="n">
-        <v>3.298653198653199</v>
+        <v>3.185227272727273</v>
       </c>
     </row>
     <row r="97">
@@ -27917,25 +27885,25 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2923506251851156</v>
+        <v>0.3113087049251768</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.052978981762126</v>
+        <v>-1.01247979015589</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1109936575052854</v>
+        <v>-0.1067653276955603</v>
       </c>
       <c r="G97" t="n">
-        <v>-105</v>
+        <v>-101</v>
       </c>
       <c r="H97" t="n">
         <v>9755</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.02982886904761906</v>
+        <v>-0.02910917453401114</v>
       </c>
       <c r="J97" t="n">
-        <v>4.24132068452381</v>
+        <v>4.225847252481239</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -27946,25 +27914,25 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.7501760886914388</v>
+        <v>0.7757279276505678</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.318407185181758</v>
+        <v>-0.2848906393731519</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.03183673469387755</v>
+        <v>-0.02857142857142857</v>
       </c>
       <c r="P97" t="n">
-        <v>-39</v>
+        <v>-35</v>
       </c>
       <c r="Q97" t="n">
         <v>14243</v>
       </c>
       <c r="R97" t="n">
-        <v>-0.004629629629629626</v>
+        <v>-0.002439024390243894</v>
       </c>
       <c r="S97" t="n">
-        <v>3.550925925925926</v>
+        <v>3.497256097560975</v>
       </c>
     </row>
     <row r="98">
@@ -27975,32 +27943,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04423281656735534</v>
+        <v>0.05642057365489639</v>
       </c>
       <c r="E98" t="n">
-        <v>-2.011877833681614</v>
+        <v>-1.907772909049124</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.3043478260869565</v>
+        <v>-0.2885375494071146</v>
       </c>
       <c r="G98" t="n">
-        <v>-77</v>
+        <v>-73</v>
       </c>
       <c r="H98" t="n">
-        <v>1427</v>
+        <v>1424.333333333333</v>
       </c>
       <c r="I98" t="n">
-        <v>-0.1224489795918367</v>
+        <v>-0.1212121212121212</v>
       </c>
       <c r="J98" t="n">
-        <v>5.346938775510204</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -28011,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0.332330615208817</v>
+        <v>0.3659786687863078</v>
       </c>
       <c r="N98" t="n">
-        <v>-0.969430150353643</v>
+        <v>-0.9040315562827679</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.1209677419354839</v>
+        <v>-0.1129032258064516</v>
       </c>
       <c r="P98" t="n">
-        <v>-60</v>
+        <v>-56</v>
       </c>
       <c r="Q98" t="n">
-        <v>3704</v>
+        <v>3701.333333333333</v>
       </c>
       <c r="R98" t="n">
-        <v>-0.01521990740740741</v>
+        <v>-0.01435185185185184</v>
       </c>
       <c r="S98" t="n">
-        <v>3.848408564814815</v>
+        <v>3.522453703703703</v>
       </c>
     </row>
     <row r="99">
@@ -28127,10 +28095,10 @@
         <v>9024</v>
       </c>
       <c r="I100" t="n">
-        <v>-0.02222222222222222</v>
+        <v>-0.0201388888888889</v>
       </c>
       <c r="J100" t="n">
-        <v>4.466666666666667</v>
+        <v>4.422916666666667</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -28159,7 +28127,7 @@
         <v>0</v>
       </c>
       <c r="S100" t="n">
-        <v>2.6</v>
+        <v>2.225</v>
       </c>
     </row>
     <row r="101">
@@ -28242,16 +28210,16 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.09638979371757195</v>
+        <v>0.1033076184391755</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.662613666295206</v>
+        <v>-1.629025511420556</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.1624489795918367</v>
+        <v>-0.1591836734693877</v>
       </c>
       <c r="G102" t="n">
-        <v>-199</v>
+        <v>-195</v>
       </c>
       <c r="H102" t="n">
         <v>14182.33333333333</v>
@@ -28271,16 +28239,16 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0.09638979371757195</v>
+        <v>0.1033076184391755</v>
       </c>
       <c r="N102" t="n">
-        <v>-1.662613666295206</v>
+        <v>-1.629025511420556</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.1624489795918367</v>
+        <v>-0.1591836734693877</v>
       </c>
       <c r="P102" t="n">
-        <v>-199</v>
+        <v>-195</v>
       </c>
       <c r="Q102" t="n">
         <v>14182.33333333333</v>
@@ -28307,19 +28275,19 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.776179098260116</v>
+        <v>0.8550805256937459</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.2843018111902259</v>
+        <v>-0.1826399630986139</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.0306553911205074</v>
+        <v>-0.0200845665961945</v>
       </c>
       <c r="G103" t="n">
-        <v>-29</v>
+        <v>-19</v>
       </c>
       <c r="H103" t="n">
-        <v>9699.666666666666</v>
+        <v>9713</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -28336,19 +28304,19 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.876275785319498</v>
+        <v>0.8087283359216364</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1556920228694671</v>
+        <v>0.2420668865993077</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01615646258503401</v>
+        <v>0.02465986394557823</v>
       </c>
       <c r="P103" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q103" t="n">
-        <v>13366.33333333333</v>
+        <v>13379.66666666667</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -28372,25 +28340,25 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5357047810097917</v>
+        <v>0.5431727047593948</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.6193212001404153</v>
+        <v>-0.6080222684240667</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.06829268292682927</v>
+        <v>-0.06707317073170732</v>
       </c>
       <c r="G104" t="n">
-        <v>-56</v>
+        <v>-55</v>
       </c>
       <c r="H104" t="n">
-        <v>7886.666666666667</v>
+        <v>7887.666666666667</v>
       </c>
       <c r="I104" t="n">
-        <v>-0.02198067632850242</v>
+        <v>-0.02021221532091097</v>
       </c>
       <c r="J104" t="n">
-        <v>4.439613526570048</v>
+        <v>4.404244306418219</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -28407,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.0008163265306122449</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>14159.66666666667</v>
+        <v>14160.66666666667</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -28502,25 +28470,25 @@
         <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>0.000109546403469718</v>
+        <v>0.0008186265497225342</v>
       </c>
       <c r="E106" t="n">
-        <v>-3.868412119467591</v>
+        <v>-3.346418789460721</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.5158730158730159</v>
+        <v>-0.4470899470899471</v>
       </c>
       <c r="G106" t="n">
-        <v>-195</v>
+        <v>-169</v>
       </c>
       <c r="H106" t="n">
-        <v>2515</v>
+        <v>2520.333333333333</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.9494949494949495</v>
+        <v>-0.4722222222222222</v>
       </c>
       <c r="J106" t="n">
-        <v>16.48484848484848</v>
+        <v>9.541666666666668</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -28531,25 +28499,25 @@
         <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>0.002291957892878171</v>
+        <v>0.007830675497682016</v>
       </c>
       <c r="N106" t="n">
-        <v>-3.049535178427898</v>
+        <v>-2.659284725885772</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.3654188948306595</v>
+        <v>-0.3190730837789661</v>
       </c>
       <c r="P106" t="n">
-        <v>-205</v>
+        <v>-179</v>
       </c>
       <c r="Q106" t="n">
-        <v>4475</v>
+        <v>4480.333333333333</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.2</v>
       </c>
       <c r="S106" t="n">
-        <v>9.625</v>
+        <v>6.050000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -28567,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6021675277481957</v>
+        <v>0.2514521865080219</v>
       </c>
       <c r="E107" t="n">
-        <v>0.5212860351426869</v>
+        <v>1.146829277313911</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G107" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H107" t="n">
         <v>92</v>
       </c>
       <c r="I107" t="n">
-        <v>1.979166666666667</v>
+        <v>7.168402777777777</v>
       </c>
       <c r="J107" t="n">
-        <v>21.41666666666666</v>
+        <v>0.659722222222225</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -28596,16 +28564,16 @@
         <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03522469685129637</v>
+        <v>0.04229965656021806</v>
       </c>
       <c r="N107" t="n">
-        <v>-2.105765847290128</v>
+        <v>-2.030559924172624</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.1379591836734694</v>
+        <v>-0.1330612244897959</v>
       </c>
       <c r="P107" t="n">
-        <v>-169</v>
+        <v>-163</v>
       </c>
       <c r="Q107" t="n">
         <v>6365</v>
@@ -28632,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2945073936801101</v>
+        <v>0.2514521865080219</v>
       </c>
       <c r="E108" t="n">
-        <v>1.048284836721918</v>
+        <v>1.146829277313911</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H108" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I108" t="n">
-        <v>4.305555555555556</v>
+        <v>3.736111111111112</v>
       </c>
       <c r="J108" t="n">
-        <v>20.77777777777778</v>
+        <v>23.05555555555555</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -28661,19 +28629,19 @@
         <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>0.04624901600369213</v>
+        <v>0.04765605782823479</v>
       </c>
       <c r="N108" t="n">
-        <v>-1.993113536991503</v>
+        <v>-1.980422642094287</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.1306122448979592</v>
+        <v>-0.1297959183673469</v>
       </c>
       <c r="P108" t="n">
-        <v>-160</v>
+        <v>-159</v>
       </c>
       <c r="Q108" t="n">
-        <v>6364</v>
+        <v>6365</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -28697,25 +28665,25 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5616143936384126</v>
+        <v>0.1714645432461888</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5804452562230382</v>
+        <v>1.367513070473927</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0613107822410148</v>
+        <v>0.1427061310782241</v>
       </c>
       <c r="G109" t="n">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="H109" t="n">
-        <v>9643.333333333334</v>
+        <v>9601.666666666666</v>
       </c>
       <c r="I109" t="n">
-        <v>0.000993986095730284</v>
+        <v>0.006072899379187414</v>
       </c>
       <c r="J109" t="n">
-        <v>1.353629298941799</v>
+        <v>1.220309856329927</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -28726,25 +28694,25 @@
         <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0.7813180052368769</v>
+        <v>0.3540788125599397</v>
       </c>
       <c r="N109" t="n">
-        <v>0.2776018586114199</v>
+        <v>0.9267067488059151</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02775510204081633</v>
+        <v>0.09061224489795919</v>
       </c>
       <c r="P109" t="n">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="Q109" t="n">
-        <v>14131.33333333333</v>
+        <v>14089.66666666667</v>
       </c>
       <c r="R109" t="n">
-        <v>0</v>
+        <v>0.002551020408163272</v>
       </c>
       <c r="S109" t="n">
-        <v>1.3125</v>
+        <v>1.223214285714286</v>
       </c>
     </row>
     <row r="110">
@@ -28845,7 +28813,7 @@
         <v>-0.40957467394249</v>
       </c>
       <c r="J111" t="n">
-        <v>5.267503453660376</v>
+        <v>5.177829540616897</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -29138,19 +29106,19 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03272048483157342</v>
+        <v>0.03019797389636047</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.135496389036097</v>
+        <v>-2.167483927779214</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.303030303030303</v>
+        <v>-0.3073593073593073</v>
       </c>
       <c r="G2" t="n">
-        <v>-70</v>
+        <v>-71</v>
       </c>
       <c r="H2" t="n">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="I2" t="n">
         <v>-0.09523809523809523</v>
@@ -29167,19 +29135,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8259827245639539</v>
+        <v>0.8185376621341749</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2198567449592884</v>
+        <v>-0.229426215936401</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02040816326530612</v>
+        <v>-0.02125850340136054</v>
       </c>
       <c r="P2" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
       <c r="Q2" t="n">
-        <v>10944</v>
+        <v>10943</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -30048,19 +30016,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08214888307333634</v>
+        <v>0.09202081061014655</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.738351579173885</v>
+        <v>-1.684832924905519</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1838316722037652</v>
+        <v>-0.1782945736434109</v>
       </c>
       <c r="G16" t="n">
-        <v>-166</v>
+        <v>-161</v>
       </c>
       <c r="H16" t="n">
-        <v>9009.333333333334</v>
+        <v>9018.333333333334</v>
       </c>
       <c r="I16" t="n">
         <v>-0.07142857142857142</v>
@@ -30077,25 +30045,25 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06178522893222627</v>
+        <v>0.06797323340097994</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.867833883616692</v>
+        <v>-1.825184225744596</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1820408163265306</v>
+        <v>-0.1779591836734694</v>
       </c>
       <c r="P16" t="n">
-        <v>-223</v>
+        <v>-218</v>
       </c>
       <c r="Q16" t="n">
-        <v>14126.33333333333</v>
+        <v>14135.33333333333</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.07142857142857142</v>
+        <v>-0.06896551724137931</v>
       </c>
       <c r="S16" t="n">
-        <v>5.75</v>
+        <v>5.689655172413794</v>
       </c>
     </row>
     <row r="17">
@@ -30178,25 +30146,25 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.8978418102551244</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.1283881477532739</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.03571428571428571</v>
+        <v>-0.07142857142857142</v>
       </c>
       <c r="G18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H18" t="n">
-        <v>55.66666666666666</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -30207,19 +30175,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1879258978622089</v>
+        <v>0.1837387902347412</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.316739680687093</v>
+        <v>-1.329331002668362</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.08244897959183674</v>
+        <v>-0.08326530612244898</v>
       </c>
       <c r="P18" t="n">
-        <v>-101</v>
+        <v>-102</v>
       </c>
       <c r="Q18" t="n">
-        <v>5767.666666666667</v>
+        <v>5772.666666666667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -30243,19 +30211,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3879816561573572</v>
+        <v>0.3632505003142568</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.8632834230202567</v>
+        <v>-0.9091887523326215</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.09390243902439024</v>
+        <v>-0.09878048780487805</v>
       </c>
       <c r="G19" t="n">
-        <v>-77</v>
+        <v>-81</v>
       </c>
       <c r="H19" t="n">
-        <v>7750.333333333333</v>
+        <v>7742.333333333333</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -30272,19 +30240,19 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.9528632522253133</v>
+        <v>0.9259702156715306</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.05911155870650127</v>
+        <v>-0.09291609931884261</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.006530612244897959</v>
+        <v>-0.009795918367346938</v>
       </c>
       <c r="P19" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="Q19" t="n">
-        <v>14023.33333333333</v>
+        <v>14015.33333333333</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -30308,19 +30276,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4415432616772268</v>
+        <v>0.4078842336544164</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7695897928714583</v>
+        <v>-0.827622655607538</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.08292682926829269</v>
+        <v>-0.08902439024390243</v>
       </c>
       <c r="G20" t="n">
-        <v>-68</v>
+        <v>-73</v>
       </c>
       <c r="H20" t="n">
-        <v>7579.333333333333</v>
+        <v>7568.333333333333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30337,19 +30305,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4503534843212913</v>
+        <v>0.4226668738598818</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.7548258450719498</v>
+        <v>-0.8018030849653476</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.07585568917668825</v>
+        <v>-0.08048103607770583</v>
       </c>
       <c r="P20" t="n">
-        <v>-82</v>
+        <v>-87</v>
       </c>
       <c r="Q20" t="n">
-        <v>11515.33333333333</v>
+        <v>11504.33333333333</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -30373,19 +30341,19 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01941468054191731</v>
+        <v>0.01759854269596661</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.337471511919713</v>
+        <v>-2.373958198877384</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3523809523809524</v>
+        <v>-0.3571428571428572</v>
       </c>
       <c r="G21" t="n">
-        <v>-74</v>
+        <v>-75</v>
       </c>
       <c r="H21" t="n">
-        <v>975.3333333333334</v>
+        <v>971.6666666666666</v>
       </c>
       <c r="I21" t="n">
         <v>-0.09090909090909091</v>
@@ -30402,19 +30370,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3102454168296656</v>
+        <v>0.3057085084087838</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.014707208723307</v>
+        <v>-1.02426842286773</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.08897959183673469</v>
+        <v>-0.08979591836734693</v>
       </c>
       <c r="P21" t="n">
-        <v>-109</v>
+        <v>-110</v>
       </c>
       <c r="Q21" t="n">
-        <v>11328.33333333333</v>
+        <v>11324.66666666667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -30698,19 +30666,19 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01077552423718853</v>
+        <v>0.01150083372980237</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.549895403411334</v>
+        <v>-2.527101261572394</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.3569230769230769</v>
+        <v>-0.3538461538461539</v>
       </c>
       <c r="G26" t="n">
-        <v>-116</v>
+        <v>-115</v>
       </c>
       <c r="H26" t="n">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="I26" t="n">
         <v>-0.3</v>
@@ -30727,19 +30695,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.217100612819757</v>
+        <v>0.2230332195145099</v>
       </c>
       <c r="N26" t="n">
-        <v>-1.234274558566089</v>
+        <v>-1.218502120322044</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.1515151515151515</v>
+        <v>-0.1496212121212121</v>
       </c>
       <c r="P26" t="n">
-        <v>-80</v>
+        <v>-79</v>
       </c>
       <c r="Q26" t="n">
-        <v>4096.666666666667</v>
+        <v>4097.666666666667</v>
       </c>
       <c r="R26" t="n">
         <v>-0.1111111111111111</v>
@@ -30763,25 +30731,25 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0005703231398972441</v>
+        <v>0.000515313873899137</v>
       </c>
       <c r="E27" t="n">
-        <v>3.445348703268381</v>
+        <v>3.472667222699543</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3478260869565217</v>
+        <v>0.3506012950971323</v>
       </c>
       <c r="G27" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H27" t="n">
-        <v>11846.66666666667</v>
+        <v>11848.33333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>0.44</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.1199999999999992</v>
+        <v>-0.2222222222222214</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -30792,19 +30760,19 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.002702805501815009</v>
+        <v>0.002489452660491276</v>
       </c>
       <c r="N27" t="n">
-        <v>2.999660648705966</v>
+        <v>3.024620517920254</v>
       </c>
       <c r="O27" t="n">
-        <v>0.2930612244897959</v>
+        <v>0.2955102040816326</v>
       </c>
       <c r="P27" t="n">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q27" t="n">
-        <v>14243.66666666667</v>
+        <v>14245.33333333333</v>
       </c>
       <c r="R27" t="n">
         <v>0.375</v>
@@ -30828,25 +30796,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2391354996268176</v>
+        <v>0.2506561181868125</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.177150355024618</v>
+        <v>-1.14875718572124</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1207729468599034</v>
+        <v>-0.1178743961352657</v>
       </c>
       <c r="G28" t="n">
-        <v>-125</v>
+        <v>-122</v>
       </c>
       <c r="H28" t="n">
-        <v>11096.33333333333</v>
+        <v>11094.66666666667</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.1052631578947368</v>
+        <v>-0.1071428571428571</v>
       </c>
       <c r="J28" t="n">
-        <v>9.868421052631579</v>
+        <v>9.910714285714285</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -30857,25 +30825,25 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.1038180983064012</v>
+        <v>0.1092532375560331</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.626618732501764</v>
+        <v>-1.601558664725588</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.1591836734693877</v>
+        <v>-0.156734693877551</v>
       </c>
       <c r="P28" t="n">
-        <v>-195</v>
+        <v>-192</v>
       </c>
       <c r="Q28" t="n">
-        <v>14224.33333333333</v>
+        <v>14222.66666666667</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.125</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="S28" t="n">
-        <v>10.0625</v>
+        <v>10.19565217391304</v>
       </c>
     </row>
     <row r="29">
@@ -30976,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -31218,25 +31186,25 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1138462980066581</v>
+        <v>0.09349248368983565</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.58113883008419</v>
+        <v>-1.677255738755069</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.4444444444444444</v>
+        <v>-0.4722222222222222</v>
       </c>
       <c r="G34" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="H34" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.675</v>
+        <v>-0.8333333333333333</v>
       </c>
       <c r="J34" t="n">
-        <v>12.7</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -31247,19 +31215,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08820645966061402</v>
+        <v>0.08591764800081969</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.704935472741097</v>
+        <v>-1.717336821181358</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.1118367346938775</v>
+        <v>-0.1126530612244898</v>
       </c>
       <c r="P34" t="n">
-        <v>-137</v>
+        <v>-138</v>
       </c>
       <c r="Q34" t="n">
-        <v>6363</v>
+        <v>6364</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -31283,10 +31251,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7295244731083146</v>
+        <v>0.7294856311433915</v>
       </c>
       <c r="E35" t="n">
-        <v>0.34575815773998</v>
+        <v>0.345809837999011</v>
       </c>
       <c r="F35" t="n">
         <v>0.03486394557823129</v>
@@ -31295,7 +31263,7 @@
         <v>41</v>
       </c>
       <c r="H35" t="n">
-        <v>13383.66666666667</v>
+        <v>13379.66666666667</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31312,10 +31280,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8601959324842559</v>
+        <v>0.8601764633115643</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1761247559544752</v>
+        <v>0.1761495384065977</v>
       </c>
       <c r="O35" t="n">
         <v>0.01795918367346939</v>
@@ -31324,7 +31292,7 @@
         <v>22</v>
       </c>
       <c r="Q35" t="n">
-        <v>14216.66666666667</v>
+        <v>14212.66666666667</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -31478,25 +31446,25 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1806656744133472</v>
+        <v>0.208984577023672</v>
       </c>
       <c r="E38" t="n">
-        <v>1.33870823482612</v>
+        <v>1.256362483989581</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1474358974358974</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="G38" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H38" t="n">
-        <v>7251.666666666667</v>
+        <v>7253.333333333333</v>
       </c>
       <c r="I38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J38" t="n">
-        <v>4.7</v>
+        <v>4.852941176470589</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -31507,25 +31475,25 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.08224358644869723</v>
+        <v>0.09321782781032617</v>
       </c>
       <c r="N38" t="n">
-        <v>1.73781403717491</v>
+        <v>1.678662553832505</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1689795918367347</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="P38" t="n">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q38" t="n">
-        <v>14051.66666666667</v>
+        <v>14053.33333333333</v>
       </c>
       <c r="R38" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S38" t="n">
-        <v>4.185185185185185</v>
+        <v>4.310344827586206</v>
       </c>
     </row>
     <row r="39">
@@ -31608,19 +31576,19 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02909228301801936</v>
+        <v>0.03197527867677974</v>
       </c>
       <c r="E40" t="n">
-        <v>2.182233785444963</v>
+        <v>2.144719526958946</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2183163737280296</v>
+        <v>0.2146160962072155</v>
       </c>
       <c r="G40" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H40" t="n">
-        <v>11596.66666666667</v>
+        <v>11600.66666666667</v>
       </c>
       <c r="I40" t="n">
         <v>0.0625</v>
@@ -31637,19 +31605,19 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01121150618334532</v>
+        <v>0.01235409911958429</v>
       </c>
       <c r="N40" t="n">
-        <v>2.536036456368446</v>
+        <v>2.501865091441785</v>
       </c>
       <c r="O40" t="n">
-        <v>0.2457142857142857</v>
+        <v>0.2424489795918367</v>
       </c>
       <c r="P40" t="n">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q40" t="n">
-        <v>13993.66666666667</v>
+        <v>13997.66666666667</v>
       </c>
       <c r="R40" t="n">
         <v>0.06896551724137931</v>
@@ -31673,19 +31641,19 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001130064384113894</v>
+        <v>0.001081732622718823</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.255968122277018</v>
+        <v>-3.268358473230325</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3630229419703104</v>
+        <v>-0.3643724696356275</v>
       </c>
       <c r="G41" t="n">
-        <v>-269</v>
+        <v>-270</v>
       </c>
       <c r="H41" t="n">
-        <v>6775</v>
+        <v>6774</v>
       </c>
       <c r="I41" t="n">
         <v>-0.5714285714285714</v>
@@ -31702,19 +31670,19 @@
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1.03756442992875e-07</v>
+        <v>9.895121544367669e-08</v>
       </c>
       <c r="N41" t="n">
-        <v>-5.320018951952407</v>
+        <v>-5.328639435823051</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.5159183673469387</v>
+        <v>-0.516734693877551</v>
       </c>
       <c r="P41" t="n">
-        <v>-632</v>
+        <v>-633</v>
       </c>
       <c r="Q41" t="n">
-        <v>14068</v>
+        <v>14067</v>
       </c>
       <c r="R41" t="n">
         <v>-0.4347826086956522</v>
@@ -31803,25 +31771,25 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.05346695791335243</v>
+        <v>0.06045631677571572</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.931130161415078</v>
+        <v>-1.877450929763781</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.243010752688172</v>
+        <v>-0.2365591397849462</v>
       </c>
       <c r="G43" t="n">
-        <v>-113</v>
+        <v>-110</v>
       </c>
       <c r="H43" t="n">
-        <v>3363.666666666667</v>
+        <v>3370.666666666667</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.1111111111111111</v>
+        <v>-0.1</v>
       </c>
       <c r="J43" t="n">
-        <v>4.666666666666666</v>
+        <v>4.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -31832,19 +31800,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9655173326336084</v>
+        <v>0.9862069322715394</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.04323107667559039</v>
+        <v>-0.017287907886999</v>
       </c>
       <c r="O43" t="n">
-        <v>-0.004897959183673469</v>
+        <v>-0.002448979591836735</v>
       </c>
       <c r="P43" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="Q43" t="n">
-        <v>13376.66666666667</v>
+        <v>13383.66666666667</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -31933,19 +31901,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4804361596391526</v>
+        <v>0.4887179605531426</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.7056012291991052</v>
+        <v>-0.6923493579099599</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.08108108108108109</v>
+        <v>-0.07957957957957958</v>
       </c>
       <c r="G45" t="n">
-        <v>-54</v>
+        <v>-53</v>
       </c>
       <c r="H45" t="n">
-        <v>5642</v>
+        <v>5641</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -31962,19 +31930,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8117353498041349</v>
+        <v>0.8183330432251521</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.2381879150710249</v>
+        <v>-0.2296895146105167</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0236734693877551</v>
+        <v>-0.02285714285714286</v>
       </c>
       <c r="P45" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
       <c r="Q45" t="n">
-        <v>13819</v>
+        <v>13818</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -32128,19 +32096,19 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.56400318644266</v>
+        <v>0.7403804598658592</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.5769056606402418</v>
+        <v>-0.3313495603140767</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.07258064516129033</v>
+        <v>-0.04166666666666666</v>
       </c>
       <c r="G48" t="n">
-        <v>-36</v>
+        <v>-22</v>
       </c>
       <c r="H48" t="n">
-        <v>3680.666666666667</v>
+        <v>4016.666666666667</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -32157,19 +32125,19 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.9793801176463184</v>
+        <v>0.9725914404208313</v>
       </c>
       <c r="N48" t="n">
-        <v>0.02584606738686988</v>
+        <v>-0.03435829395779166</v>
       </c>
       <c r="O48" t="n">
-        <v>0.00326530612244898</v>
+        <v>-0.004081632653061225</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
       <c r="Q48" t="n">
-        <v>13472.66666666667</v>
+        <v>13553.66666666667</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -32258,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9153229394302562</v>
+        <v>0.9682049766769734</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1063269630438533</v>
+        <v>0.03985970453557296</v>
       </c>
       <c r="F50" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="G50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H50" t="n">
-        <v>5661</v>
+        <v>5664.666666666667</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -32287,19 +32255,19 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.8985343538921837</v>
+        <v>0.8650141751556548</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.1275130388748715</v>
+        <v>-0.1699948648160202</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.01306122448979592</v>
+        <v>-0.01714285714285714</v>
       </c>
       <c r="P50" t="n">
-        <v>-16</v>
+        <v>-21</v>
       </c>
       <c r="Q50" t="n">
-        <v>13838</v>
+        <v>13841.66666666667</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -32388,19 +32356,19 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9219504454044629</v>
+        <v>0.8162636512000907</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.09797714031343639</v>
+        <v>-0.2323532566854251</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.01214574898785425</v>
+        <v>-0.02699055330634278</v>
       </c>
       <c r="G52" t="n">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="H52" t="n">
-        <v>6667</v>
+        <v>6686.666666666667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -32410,32 +32378,32 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>no trend</t>
+          <t>decreasing</t>
         </is>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05686858930267813</v>
+        <v>0.0459323930372828</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.90431947549681</v>
+        <v>-1.996014054239981</v>
       </c>
       <c r="O52" t="n">
-        <v>-0.1844897959183673</v>
+        <v>-0.193469387755102</v>
       </c>
       <c r="P52" t="n">
-        <v>-226</v>
+        <v>-237</v>
       </c>
       <c r="Q52" t="n">
-        <v>13960</v>
+        <v>13979.66666666667</v>
       </c>
       <c r="R52" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.04545454545454546</v>
       </c>
       <c r="S52" t="n">
-        <v>3.520833333333333</v>
+        <v>3.613636363636364</v>
       </c>
     </row>
     <row r="53">
@@ -32453,16 +32421,16 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.486688195267585</v>
+        <v>0.4359466012901319</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.695585905747124</v>
+        <v>-0.7790562144367789</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.08095238095238096</v>
+        <v>-0.09047619047619047</v>
       </c>
       <c r="G53" t="n">
-        <v>-51</v>
+        <v>-57</v>
       </c>
       <c r="H53" t="n">
         <v>5167</v>
@@ -32482,16 +32450,16 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>0.7457548295044629</v>
+        <v>0.7073346731871775</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.3242419963919613</v>
+        <v>-0.3754381010854289</v>
       </c>
       <c r="O53" t="n">
-        <v>-0.03183673469387755</v>
+        <v>-0.03673469387755102</v>
       </c>
       <c r="P53" t="n">
-        <v>-39</v>
+        <v>-45</v>
       </c>
       <c r="Q53" t="n">
         <v>13735</v>
@@ -32518,19 +32486,19 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6461595262206028</v>
+        <v>0.5759656098228367</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4591039417196608</v>
+        <v>-0.5592873755074851</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.05378151260504202</v>
+        <v>-0.06554621848739496</v>
       </c>
       <c r="G54" t="n">
-        <v>-32</v>
+        <v>-39</v>
       </c>
       <c r="H54" t="n">
-        <v>4559.333333333333</v>
+        <v>4616.333333333333</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -32547,19 +32515,19 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.558150597764739</v>
+        <v>0.5192439200460983</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.5855907025955129</v>
+        <v>-0.64451131913131</v>
       </c>
       <c r="O54" t="n">
-        <v>-0.0563265306122449</v>
+        <v>-0.06204081632653061</v>
       </c>
       <c r="P54" t="n">
-        <v>-69</v>
+        <v>-76</v>
       </c>
       <c r="Q54" t="n">
-        <v>13484.33333333333</v>
+        <v>13541.33333333333</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -32583,25 +32551,25 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.03256895908285751</v>
+        <v>0.02169419441064302</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.137357085257199</v>
+        <v>-2.295679832313287</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.2191919191919192</v>
+        <v>-0.2353535353535353</v>
       </c>
       <c r="G55" t="n">
-        <v>-217</v>
+        <v>-233</v>
       </c>
       <c r="H55" t="n">
         <v>10213</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.05195681511470985</v>
+        <v>-0.0548048048048048</v>
       </c>
       <c r="J55" t="n">
-        <v>6.143049932523617</v>
+        <v>6.205705705705705</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -32612,25 +32580,25 @@
         <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0.009107571315704277</v>
+        <v>0.006087490761617742</v>
       </c>
       <c r="N55" t="n">
-        <v>-2.607989631103322</v>
+        <v>-2.743031165399934</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.2530612244897959</v>
+        <v>-0.2661224489795919</v>
       </c>
       <c r="P55" t="n">
-        <v>-310</v>
+        <v>-326</v>
       </c>
       <c r="Q55" t="n">
         <v>14038</v>
       </c>
       <c r="R55" t="n">
-        <v>-0.07142857142857142</v>
+        <v>-0.07407407407407407</v>
       </c>
       <c r="S55" t="n">
-        <v>5.75</v>
+        <v>6.314814814814815</v>
       </c>
     </row>
     <row r="56">
@@ -32713,19 +32681,19 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9088485074662418</v>
+        <v>0.9189197336297847</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1144910920679361</v>
+        <v>0.1017945727019478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.01422475106685633</v>
+        <v>0.0128022759601707</v>
       </c>
       <c r="G57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" t="n">
-        <v>6179.333333333333</v>
+        <v>6176.333333333333</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -32742,19 +32710,19 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0.7539184563888202</v>
+        <v>0.7603377564163789</v>
       </c>
       <c r="N57" t="n">
-        <v>0.313476783713496</v>
+        <v>0.3050372836324886</v>
       </c>
       <c r="O57" t="n">
-        <v>0.03102040816326531</v>
+        <v>0.03020408163265306</v>
       </c>
       <c r="P57" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q57" t="n">
-        <v>13931.33333333333</v>
+        <v>13928.33333333333</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -32843,25 +32811,25 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3016498422668163</v>
+        <v>0.3575568896044892</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.032901830075924</v>
+        <v>-0.9200303686911143</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1226890756302521</v>
+        <v>-0.1092436974789916</v>
       </c>
       <c r="G59" t="n">
-        <v>-73</v>
+        <v>-65</v>
       </c>
       <c r="H59" t="n">
-        <v>4859</v>
+        <v>4839</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.03125</v>
       </c>
       <c r="J59" t="n">
-        <v>7.708333333333333</v>
+        <v>7.53125</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -32872,25 +32840,25 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3421804110335969</v>
+        <v>0.397665126639291</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.9498658696222585</v>
+        <v>-0.8457985641025977</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.1096096096096096</v>
+        <v>-0.09759759759759759</v>
       </c>
       <c r="P59" t="n">
-        <v>-73</v>
+        <v>-65</v>
       </c>
       <c r="Q59" t="n">
-        <v>5745.666666666667</v>
+        <v>5725.666666666667</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.03846153846153846</v>
+        <v>-0.01470588235294118</v>
       </c>
       <c r="S59" t="n">
-        <v>7.692307692307693</v>
+        <v>7.264705882352941</v>
       </c>
     </row>
     <row r="60">
@@ -32908,25 +32876,25 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1993205477509923</v>
+        <v>0.2464412221220496</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.283489751672352</v>
+        <v>-1.159036709240089</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2279411764705882</v>
+        <v>-0.2058823529411765</v>
       </c>
       <c r="G60" t="n">
-        <v>-31</v>
+        <v>-28</v>
       </c>
       <c r="H60" t="n">
-        <v>546.3333333333334</v>
+        <v>542.6666666666666</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.08712121212121213</v>
+        <v>-0.03846153846153846</v>
       </c>
       <c r="J60" t="n">
-        <v>2.696969696969697</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -32937,19 +32905,19 @@
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0.9309820677906129</v>
+        <v>0.9827104279740764</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.08660930699488413</v>
+        <v>-0.02167096115300214</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.01424501424501425</v>
+        <v>-0.005698005698005698</v>
       </c>
       <c r="P60" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="Q60" t="n">
-        <v>2133</v>
+        <v>2129.333333333333</v>
       </c>
       <c r="R60" t="n">
         <v>0</v>
@@ -32973,19 +32941,19 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01236936853800019</v>
+        <v>0.0133190027563248</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.501427729661875</v>
+        <v>-2.475123721302556</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2448979591836735</v>
+        <v>-0.2423469387755102</v>
       </c>
       <c r="G61" t="n">
-        <v>-288</v>
+        <v>-285</v>
       </c>
       <c r="H61" t="n">
-        <v>13164</v>
+        <v>13165.66666666667</v>
       </c>
       <c r="I61" t="n">
         <v>-0.0625</v>
@@ -33002,19 +32970,19 @@
         <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0.007952762431054472</v>
+        <v>0.008574851205028766</v>
       </c>
       <c r="N61" t="n">
-        <v>-2.654068739590801</v>
+        <v>-2.628554904467214</v>
       </c>
       <c r="O61" t="n">
-        <v>-0.2571428571428571</v>
+        <v>-0.2546938775510204</v>
       </c>
       <c r="P61" t="n">
-        <v>-315</v>
+        <v>-312</v>
       </c>
       <c r="Q61" t="n">
-        <v>13997</v>
+        <v>13998.66666666667</v>
       </c>
       <c r="R61" t="n">
         <v>-0.06666666666666667</v>
@@ -33038,19 +33006,19 @@
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.003525229765193538</v>
+        <v>0.003674067552416727</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.917788848676892</v>
+        <v>-2.904869071225271</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.3285917496443812</v>
+        <v>-0.3271692745376956</v>
       </c>
       <c r="G62" t="n">
-        <v>-231</v>
+        <v>-230</v>
       </c>
       <c r="H62" t="n">
-        <v>6213.666666666667</v>
+        <v>6214.666666666667</v>
       </c>
       <c r="I62" t="n">
         <v>-0.1333333333333333</v>
@@ -33067,19 +33035,19 @@
         <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0.005194491565496673</v>
+        <v>0.005389464137662836</v>
       </c>
       <c r="N62" t="n">
-        <v>-2.79471855624378</v>
+        <v>-2.782784193509633</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.3064102564102564</v>
+        <v>-0.3051282051282052</v>
       </c>
       <c r="P62" t="n">
-        <v>-239</v>
+        <v>-238</v>
       </c>
       <c r="Q62" t="n">
-        <v>7252.333333333333</v>
+        <v>7253.333333333333</v>
       </c>
       <c r="R62" t="n">
         <v>-0.1297335203366059</v>
@@ -33103,25 +33071,25 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01518926454157077</v>
+        <v>0.01242559291698719</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.427834696790191</v>
+        <v>-2.499821406884894</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2432932469935245</v>
+        <v>-0.2506938020351526</v>
       </c>
       <c r="G63" t="n">
-        <v>-263</v>
+        <v>-271</v>
       </c>
       <c r="H63" t="n">
-        <v>11645.66666666667</v>
+        <v>11665.66666666667</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.07692307692307693</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="J63" t="n">
-        <v>6.769230769230769</v>
+        <v>6.916666666666666</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -33132,25 +33100,25 @@
         <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0.006300020508777759</v>
+        <v>0.005122558555142875</v>
       </c>
       <c r="N63" t="n">
-        <v>-2.731743303256105</v>
+        <v>-2.799224015202462</v>
       </c>
       <c r="O63" t="n">
-        <v>-0.2678571428571428</v>
+        <v>-0.2746598639455782</v>
       </c>
       <c r="P63" t="n">
-        <v>-315</v>
+        <v>-323</v>
       </c>
       <c r="Q63" t="n">
-        <v>13212.33333333333</v>
+        <v>13232.33333333333</v>
       </c>
       <c r="R63" t="n">
-        <v>-0.09090909090909091</v>
+        <v>-0.09375</v>
       </c>
       <c r="S63" t="n">
-        <v>7.181818181818182</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="64">
@@ -33168,16 +33136,16 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02888601169608807</v>
+        <v>0.03154904177821849</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.185038665620979</v>
+        <v>-2.150078046971043</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2709677419354839</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="G64" t="n">
-        <v>-126</v>
+        <v>-124</v>
       </c>
       <c r="H64" t="n">
         <v>3272.666666666667</v>
@@ -33197,16 +33165,16 @@
         <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0.0003284381328794161</v>
+        <v>0.0003510055675592927</v>
       </c>
       <c r="N64" t="n">
-        <v>-3.591771211122466</v>
+        <v>-3.574419659377913</v>
       </c>
       <c r="O64" t="n">
-        <v>-0.3387755102040816</v>
+        <v>-0.3371428571428571</v>
       </c>
       <c r="P64" t="n">
-        <v>-415</v>
+        <v>-413</v>
       </c>
       <c r="Q64" t="n">
         <v>13285.66666666667</v>
@@ -33233,25 +33201,25 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.06277254862121051</v>
+        <v>0.05984703203862396</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.86079912855427</v>
+        <v>-1.881918869236841</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2038461538461538</v>
+        <v>-0.2064102564102564</v>
       </c>
       <c r="G65" t="n">
-        <v>-159</v>
+        <v>-161</v>
       </c>
       <c r="H65" t="n">
-        <v>7209.666666666667</v>
+        <v>7228.333333333333</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.05798319327731093</v>
+        <v>-0.0625</v>
       </c>
       <c r="J65" t="n">
-        <v>6.130672268907563</v>
+        <v>6.21875</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -33262,25 +33230,25 @@
         <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0.006696438581402786</v>
+        <v>0.006365198511098402</v>
       </c>
       <c r="N65" t="n">
-        <v>-2.711575021217025</v>
+        <v>-2.728350241481864</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.2753623188405797</v>
+        <v>-0.2772946859903382</v>
       </c>
       <c r="P65" t="n">
-        <v>-285</v>
+        <v>-287</v>
       </c>
       <c r="Q65" t="n">
-        <v>10969.66666666667</v>
+        <v>10988.33333333333</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.08333333333333333</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="S65" t="n">
-        <v>5.875</v>
+        <v>5.956521739130435</v>
       </c>
     </row>
     <row r="66">
@@ -33298,10 +33266,10 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02212122815807294</v>
+        <v>0.02215933995298114</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.288279867614951</v>
+        <v>-2.287625493765427</v>
       </c>
       <c r="F66" t="n">
         <v>-0.2294172062904718</v>
@@ -33310,7 +33278,7 @@
         <v>-248</v>
       </c>
       <c r="H66" t="n">
-        <v>11651.33333333333</v>
+        <v>11658</v>
       </c>
       <c r="I66" t="n">
         <v>-0.05882352941176471</v>
@@ -33327,10 +33295,10 @@
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0.004585021213329599</v>
+        <v>0.004594680154358155</v>
       </c>
       <c r="N66" t="n">
-        <v>-2.834829057210368</v>
+        <v>-2.834156659416941</v>
       </c>
       <c r="O66" t="n">
         <v>-0.2751020408163266</v>
@@ -33339,7 +33307,7 @@
         <v>-337</v>
       </c>
       <c r="Q66" t="n">
-        <v>14048.33333333333</v>
+        <v>14055</v>
       </c>
       <c r="R66" t="n">
         <v>-0.07142857142857142</v>
@@ -33378,10 +33346,10 @@
         <v>9011</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.08571428571428572</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="J67" t="n">
-        <v>8.800000000000001</v>
+        <v>8.826086956521738</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -33407,10 +33375,10 @@
         <v>9011</v>
       </c>
       <c r="R67" t="n">
-        <v>-0.08571428571428572</v>
+        <v>-0.08695652173913043</v>
       </c>
       <c r="S67" t="n">
-        <v>8.800000000000001</v>
+        <v>8.826086956521738</v>
       </c>
     </row>
     <row r="68">
@@ -33428,19 +33396,19 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9780562603409757</v>
+        <v>0.7915631828411303</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.02750586711145904</v>
+        <v>0.2642812815437408</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.004761904761904762</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="G68" t="n">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="H68" t="n">
-        <v>5287</v>
+        <v>5727</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -33457,19 +33425,19 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0.6555007763032874</v>
+        <v>0.698218948759133</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4461335541894079</v>
+        <v>0.3877258163564086</v>
       </c>
       <c r="O68" t="n">
-        <v>0.05</v>
+        <v>0.04358974358974359</v>
       </c>
       <c r="P68" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q68" t="n">
-        <v>7255</v>
+        <v>7244</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
@@ -33688,19 +33656,19 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.9921380826011708</v>
+        <v>0.8787591052317822</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.009853611673912271</v>
+        <v>0.1525424584701444</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.00202020202020202</v>
+        <v>0.01642512077294686</v>
       </c>
       <c r="G72" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="H72" t="n">
-        <v>10299.33333333333</v>
+        <v>11001.66666666667</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -33717,10 +33685,10 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.8787736826255299</v>
+        <v>0.8787591052317822</v>
       </c>
       <c r="N72" t="n">
-        <v>0.1525239746363884</v>
+        <v>0.1525424584701444</v>
       </c>
       <c r="O72" t="n">
         <v>0.01642512077294686</v>
@@ -33729,7 +33697,7 @@
         <v>17</v>
       </c>
       <c r="Q72" t="n">
-        <v>11004.33333333333</v>
+        <v>11001.66666666667</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -33818,25 +33786,25 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08560954234624774</v>
+        <v>0.06751236830071705</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.71902652410729</v>
+        <v>-1.828247812104395</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1673469387755102</v>
+        <v>-0.1779591836734694</v>
       </c>
       <c r="G74" t="n">
-        <v>-205</v>
+        <v>-218</v>
       </c>
       <c r="H74" t="n">
-        <v>14083</v>
+        <v>14088</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.05</v>
+        <v>-0.05128205128205128</v>
       </c>
       <c r="J74" t="n">
-        <v>7.225</v>
+        <v>7.256410256410256</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -33847,25 +33815,25 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0.08560954234624774</v>
+        <v>0.06751236830071705</v>
       </c>
       <c r="N74" t="n">
-        <v>-1.71902652410729</v>
+        <v>-1.828247812104395</v>
       </c>
       <c r="O74" t="n">
-        <v>-0.1673469387755102</v>
+        <v>-0.1779591836734694</v>
       </c>
       <c r="P74" t="n">
-        <v>-205</v>
+        <v>-218</v>
       </c>
       <c r="Q74" t="n">
-        <v>14083</v>
+        <v>14088</v>
       </c>
       <c r="R74" t="n">
-        <v>-0.05</v>
+        <v>-0.05128205128205128</v>
       </c>
       <c r="S74" t="n">
-        <v>7.225</v>
+        <v>7.256410256410256</v>
       </c>
     </row>
     <row r="75">
@@ -33883,25 +33851,25 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1418021309731543</v>
+        <v>0.2269710126754478</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.469113041689787</v>
+        <v>-1.20819825542213</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.178030303030303</v>
+        <v>-0.1443850267379679</v>
       </c>
       <c r="G75" t="n">
-        <v>-94</v>
+        <v>-81</v>
       </c>
       <c r="H75" t="n">
-        <v>4007.333333333333</v>
+        <v>4384.333333333333</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.05</v>
+        <v>-0.03225806451612903</v>
       </c>
       <c r="J75" t="n">
-        <v>3.8</v>
+        <v>3.532258064516129</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -33912,19 +33880,19 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0.4918290598534556</v>
+        <v>0.440808962842048</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.6874025996920916</v>
+        <v>-0.7708278743682493</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.06612244897959184</v>
+        <v>-0.07428571428571429</v>
       </c>
       <c r="P75" t="n">
-        <v>-81</v>
+        <v>-91</v>
       </c>
       <c r="Q75" t="n">
-        <v>13544.33333333333</v>
+        <v>13632.33333333333</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -33948,25 +33916,25 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1581013129201645</v>
+        <v>0.1493285868866974</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.411486162471749</v>
+        <v>-1.441907086187505</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1723484848484849</v>
+        <v>-0.1761363636363636</v>
       </c>
       <c r="G76" t="n">
-        <v>-91</v>
+        <v>-93</v>
       </c>
       <c r="H76" t="n">
-        <v>4065.666666666667</v>
+        <v>4071</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.05718954248366013</v>
+        <v>-0.07179487179487179</v>
       </c>
       <c r="J76" t="n">
-        <v>4.915032679738562</v>
+        <v>5.148717948717948</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -33977,25 +33945,25 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0.3959732333182511</v>
+        <v>0.3865925865088213</v>
       </c>
       <c r="N76" t="n">
-        <v>-0.8488347814381669</v>
+        <v>-0.8658132414539602</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.08163265306122448</v>
+        <v>-0.08326530612244898</v>
       </c>
       <c r="P76" t="n">
-        <v>-100</v>
+        <v>-102</v>
       </c>
       <c r="Q76" t="n">
-        <v>13602.66666666667</v>
+        <v>13608</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77">
@@ -34013,25 +33981,25 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.05445886845074899</v>
+        <v>0.08853565412387487</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.923168686477124</v>
+        <v>-1.703173233851989</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2235294117647059</v>
+        <v>-0.1952380952380952</v>
       </c>
       <c r="G77" t="n">
-        <v>-133</v>
+        <v>-123</v>
       </c>
       <c r="H77" t="n">
-        <v>4711</v>
+        <v>5131</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.04347826086956522</v>
+        <v>-0.03703703703703703</v>
       </c>
       <c r="J77" t="n">
-        <v>3.739130434782608</v>
+        <v>3.648148148148148</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -34042,25 +34010,25 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>0.1131330914959783</v>
+        <v>0.09070511443370655</v>
       </c>
       <c r="N77" t="n">
-        <v>-1.584266475062526</v>
+        <v>-1.691689903913321</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.1518367346938775</v>
+        <v>-0.1624489795918367</v>
       </c>
       <c r="P77" t="n">
-        <v>-186</v>
+        <v>-199</v>
       </c>
       <c r="Q77" t="n">
-        <v>13636</v>
+        <v>13699</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>-0.02439024390243903</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>2.597560975609756</v>
       </c>
     </row>
     <row r="78">
@@ -34078,19 +34046,19 @@
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4862190298546163</v>
+        <v>0.4091316901421851</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.6963350467765816</v>
+        <v>-0.8254226323640111</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.08235294117647059</v>
+        <v>-0.09747899159663866</v>
       </c>
       <c r="G78" t="n">
-        <v>-49</v>
+        <v>-58</v>
       </c>
       <c r="H78" t="n">
-        <v>4751.666666666667</v>
+        <v>4768.666666666667</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -34107,25 +34075,25 @@
         <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>0.04823989868045353</v>
+        <v>0.0402735212985823</v>
       </c>
       <c r="N78" t="n">
-        <v>-1.975248991668765</v>
+        <v>-2.050932493142846</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.1893877551020408</v>
+        <v>-0.196734693877551</v>
       </c>
       <c r="P78" t="n">
-        <v>-232</v>
+        <v>-241</v>
       </c>
       <c r="Q78" t="n">
-        <v>13676.66666666667</v>
+        <v>13693.66666666667</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.02857142857142857</v>
+        <v>-0.03125</v>
       </c>
       <c r="S78" t="n">
-        <v>2.2</v>
+        <v>2.765625</v>
       </c>
     </row>
     <row r="79">
@@ -34143,19 +34111,19 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5415280576789607</v>
+        <v>0.4008650468169024</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6105039045943436</v>
+        <v>-0.8400772999250294</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.06970128022759602</v>
+        <v>-0.09530583214793741</v>
       </c>
       <c r="G79" t="n">
-        <v>-49</v>
+        <v>-67</v>
       </c>
       <c r="H79" t="n">
-        <v>6181.666666666667</v>
+        <v>6172.333333333333</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -34172,19 +34140,19 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.3513985604279881</v>
+        <v>0.2780400255638169</v>
       </c>
       <c r="N79" t="n">
-        <v>-0.9318799694731735</v>
+        <v>-1.084732778819701</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.09061224489795919</v>
+        <v>-0.1053061224489796</v>
       </c>
       <c r="P79" t="n">
-        <v>-111</v>
+        <v>-129</v>
       </c>
       <c r="Q79" t="n">
-        <v>13933.66666666667</v>
+        <v>13924.33333333333</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -34208,25 +34176,25 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2085664218765257</v>
+        <v>0.1985094282231037</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.257517180377011</v>
+        <v>-1.285809860089866</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.146031746031746</v>
+        <v>-0.1492063492063492</v>
       </c>
       <c r="G80" t="n">
-        <v>-92</v>
+        <v>-94</v>
       </c>
       <c r="H80" t="n">
-        <v>5236.666666666667</v>
+        <v>5231.333333333333</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.04653679653679654</v>
+        <v>-0.05277777777777778</v>
       </c>
       <c r="J80" t="n">
-        <v>5.314393939393939</v>
+        <v>5.423611111111111</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -34237,25 +34205,25 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1363696706592963</v>
+        <v>0.1318720692279045</v>
       </c>
       <c r="N80" t="n">
-        <v>-1.489447111231396</v>
+        <v>-1.506760455062625</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.1436734693877551</v>
+        <v>-0.1453061224489796</v>
       </c>
       <c r="P80" t="n">
-        <v>-176</v>
+        <v>-178</v>
       </c>
       <c r="Q80" t="n">
-        <v>13804.66666666667</v>
+        <v>13799.33333333333</v>
       </c>
       <c r="R80" t="n">
         <v>-0.02380952380952381</v>
       </c>
       <c r="S80" t="n">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
     </row>
     <row r="81">
@@ -34273,19 +34241,19 @@
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6862342052294996</v>
+        <v>0.596600657856059</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4039707816339002</v>
+        <v>-0.5292952389177337</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.04078014184397163</v>
+        <v>-0.05319148936170213</v>
       </c>
       <c r="G81" t="n">
-        <v>-46</v>
+        <v>-60</v>
       </c>
       <c r="H81" t="n">
-        <v>12408.66666666667</v>
+        <v>12425.33333333333</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -34302,19 +34270,19 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.6185415806705157</v>
+        <v>0.538090445712617</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.4979183675327324</v>
+        <v>-0.6157031685228762</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.04897959183673469</v>
+        <v>-0.06040816326530613</v>
       </c>
       <c r="P81" t="n">
-        <v>-60</v>
+        <v>-74</v>
       </c>
       <c r="Q81" t="n">
-        <v>14040.66666666667</v>
+        <v>14057.33333333333</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -34338,16 +34306,16 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6027739627673516</v>
+        <v>0.4779164970494985</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5204155665003791</v>
+        <v>-0.7096575906823351</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0576923076923077</v>
+        <v>-0.0782051282051282</v>
       </c>
       <c r="G82" t="n">
-        <v>-45</v>
+        <v>-61</v>
       </c>
       <c r="H82" t="n">
         <v>7148.333333333333</v>
@@ -34367,16 +34335,16 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0.8922364119325306</v>
+        <v>0.78642964949844</v>
       </c>
       <c r="N82" t="n">
-        <v>-0.1354748952602955</v>
+        <v>-0.2709497905205909</v>
       </c>
       <c r="O82" t="n">
-        <v>-0.01387755102040816</v>
+        <v>-0.02693877551020408</v>
       </c>
       <c r="P82" t="n">
-        <v>-17</v>
+        <v>-33</v>
       </c>
       <c r="Q82" t="n">
         <v>13948.33333333333</v>
@@ -34403,25 +34371,25 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.08700417614524447</v>
+        <v>0.08241961949577936</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.71141691872729</v>
+        <v>-1.736816195201691</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1984126984126984</v>
+        <v>-0.2015873015873016</v>
       </c>
       <c r="G83" t="n">
-        <v>-125</v>
+        <v>-127</v>
       </c>
       <c r="H83" t="n">
-        <v>5249.666666666667</v>
+        <v>5263</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.06166982922201138</v>
+        <v>-0.06904761904761905</v>
       </c>
       <c r="J83" t="n">
-        <v>5.079222011385199</v>
+        <v>5.208333333333334</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -34432,25 +34400,25 @@
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0.07681358754298317</v>
+        <v>0.07415849983138934</v>
       </c>
       <c r="N83" t="n">
-        <v>-1.769481307244531</v>
+        <v>-1.78563423599459</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.1706122448979592</v>
+        <v>-0.1722448979591837</v>
       </c>
       <c r="P83" t="n">
-        <v>-209</v>
+        <v>-211</v>
       </c>
       <c r="Q83" t="n">
-        <v>13817.66666666667</v>
+        <v>13831</v>
       </c>
       <c r="R83" t="n">
-        <v>-0.03571428571428571</v>
+        <v>-0.04</v>
       </c>
       <c r="S83" t="n">
-        <v>2.875</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="84">
@@ -34468,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5799276040081311</v>
+        <v>0.5249496653791301</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5534904707250451</v>
+        <v>-0.6357342244664859</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.06153846153846154</v>
+        <v>-0.07051282051282051</v>
       </c>
       <c r="G84" t="n">
-        <v>-48</v>
+        <v>-55</v>
       </c>
       <c r="H84" t="n">
-        <v>7210.666666666667</v>
+        <v>7215</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -34497,25 +34465,25 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0.2987377960457094</v>
+        <v>0.2721554052010262</v>
       </c>
       <c r="N84" t="n">
-        <v>-1.039143944330355</v>
+        <v>-1.098112414128674</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.1012244897959184</v>
+        <v>-0.1069387755102041</v>
       </c>
       <c r="P84" t="n">
-        <v>-124</v>
+        <v>-131</v>
       </c>
       <c r="Q84" t="n">
-        <v>14010.66666666667</v>
+        <v>14015</v>
       </c>
       <c r="R84" t="n">
-        <v>0</v>
+        <v>-0.02380952380952381</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
     </row>
     <row r="85">
@@ -34598,19 +34566,19 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7152680962072271</v>
+        <v>0.7284207083492966</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.3647900992843806</v>
+        <v>-0.3472271062540951</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.04731182795698925</v>
+        <v>-0.04516129032258064</v>
       </c>
       <c r="G86" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="H86" t="n">
-        <v>3314</v>
+        <v>3317.666666666667</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -34627,19 +34595,19 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0.3055598499125833</v>
+        <v>0.3126068842411076</v>
       </c>
       <c r="N86" t="n">
-        <v>-1.024583295188671</v>
+        <v>-1.009767103811465</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.1210084033613445</v>
+        <v>-0.119327731092437</v>
       </c>
       <c r="P86" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="Q86" t="n">
-        <v>4802</v>
+        <v>4805.666666666667</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -34728,19 +34696,19 @@
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02780494509383513</v>
+        <v>0.02844035711051074</v>
       </c>
       <c r="E88" t="n">
-        <v>-2.200027484348069</v>
+        <v>-2.191158050343499</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2151360544217687</v>
+        <v>-0.2142857142857143</v>
       </c>
       <c r="G88" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="H88" t="n">
-        <v>13120.33333333333</v>
+        <v>13122</v>
       </c>
       <c r="I88" t="n">
         <v>-0.04880952380952381</v>
@@ -34757,25 +34725,25 @@
         <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>0.02713722548603092</v>
+        <v>0.02774019127496086</v>
       </c>
       <c r="N88" t="n">
-        <v>-2.209538242507408</v>
+        <v>-2.200941136111815</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.2138775510204082</v>
+        <v>-0.2130612244897959</v>
       </c>
       <c r="P88" t="n">
-        <v>-262</v>
+        <v>-261</v>
       </c>
       <c r="Q88" t="n">
-        <v>13953.33333333333</v>
+        <v>13955</v>
       </c>
       <c r="R88" t="n">
-        <v>-0.04878048780487805</v>
+        <v>-0.04761904761904762</v>
       </c>
       <c r="S88" t="n">
-        <v>5.195121951219512</v>
+        <v>5.166666666666666</v>
       </c>
     </row>
     <row r="89">
@@ -34793,10 +34761,10 @@
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.444887551499034</v>
+        <v>0.4447296353870529</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.7639659208570165</v>
+        <v>-0.7642309337592229</v>
       </c>
       <c r="F89" t="n">
         <v>-0.08292682926829269</v>
@@ -34805,7 +34773,7 @@
         <v>-68</v>
       </c>
       <c r="H89" t="n">
-        <v>7691.333333333333</v>
+        <v>7686</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -34822,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1363899976803069</v>
+        <v>0.136315138918192</v>
       </c>
       <c r="N89" t="n">
-        <v>-1.489369871709725</v>
+        <v>-1.489654367282475</v>
       </c>
       <c r="O89" t="n">
         <v>-0.1444897959183674</v>
@@ -34834,13 +34802,13 @@
         <v>-177</v>
       </c>
       <c r="Q89" t="n">
-        <v>13964.33333333333</v>
+        <v>13959</v>
       </c>
       <c r="R89" t="n">
-        <v>-0.03225806451612903</v>
+        <v>-0.03125</v>
       </c>
       <c r="S89" t="n">
-        <v>3.290322580645161</v>
+        <v>3.265625</v>
       </c>
     </row>
     <row r="90">
@@ -34858,19 +34826,19 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7506433702214412</v>
+        <v>0.7106484331733096</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.3177911421426228</v>
+        <v>-0.3709853636795051</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.03433001107419712</v>
+        <v>-0.03986710963455149</v>
       </c>
       <c r="G90" t="n">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="H90" t="n">
-        <v>8911.666666666666</v>
+        <v>8900.666666666666</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -34887,19 +34855,19 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.4834522101668699</v>
+        <v>0.4573200913849096</v>
       </c>
       <c r="N90" t="n">
-        <v>-0.7007609525758692</v>
+        <v>-0.7432669259788095</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.06857142857142857</v>
+        <v>-0.07265306122448979</v>
       </c>
       <c r="P90" t="n">
-        <v>-84</v>
+        <v>-89</v>
       </c>
       <c r="Q90" t="n">
-        <v>14028.66666666667</v>
+        <v>14017.66666666667</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -34988,25 +34956,25 @@
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4406363213039266</v>
+        <v>0.4213855514290215</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.771119132183017</v>
+        <v>-0.8040197803101821</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.08414634146341464</v>
+        <v>-0.08780487804878048</v>
       </c>
       <c r="G92" t="n">
-        <v>-69</v>
+        <v>-72</v>
       </c>
       <c r="H92" t="n">
-        <v>7776.333333333333</v>
+        <v>7798</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>-0.02943722943722944</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>4.588744588744588</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -35017,19 +34985,19 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0.9663524519236379</v>
+        <v>0.946230196995856</v>
       </c>
       <c r="N92" t="n">
-        <v>-0.04218345486654164</v>
+        <v>-0.06744154416264504</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.004897959183673469</v>
+        <v>-0.007346938775510204</v>
       </c>
       <c r="P92" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="Q92" t="n">
-        <v>14049.33333333333</v>
+        <v>14071</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -35053,25 +35021,25 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1975845744394888</v>
+        <v>0.1691640881257253</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.288463765039636</v>
+        <v>-1.37489471458848</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1450924608819346</v>
+        <v>-0.155049786628734</v>
       </c>
       <c r="G93" t="n">
-        <v>-102</v>
+        <v>-109</v>
       </c>
       <c r="H93" t="n">
-        <v>6144.666666666667</v>
+        <v>6170.333333333333</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.04761904761904762</v>
+        <v>-0.05555555555555555</v>
       </c>
       <c r="J93" t="n">
-        <v>4.880952380952381</v>
+        <v>5.027777777777778</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -35082,25 +35050,25 @@
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0.2002221604064016</v>
+        <v>0.1805501010864088</v>
       </c>
       <c r="N93" t="n">
-        <v>-1.280918880421472</v>
+        <v>-1.339063194440501</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.1240816326530612</v>
+        <v>-0.1297959183673469</v>
       </c>
       <c r="P93" t="n">
-        <v>-152</v>
+        <v>-159</v>
       </c>
       <c r="Q93" t="n">
-        <v>13896.66666666667</v>
+        <v>13922.33333333333</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.02222222222222222</v>
+        <v>-0.02777777777777778</v>
       </c>
       <c r="S93" t="n">
-        <v>3.544444444444444</v>
+        <v>3.680555555555555</v>
       </c>
     </row>
     <row r="94">
@@ -35248,19 +35216,19 @@
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.796093123313997</v>
+        <v>0.7158508422209409</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.2584066002017412</v>
+        <v>-0.3640095979599038</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.02948717948717949</v>
+        <v>-0.04102564102564103</v>
       </c>
       <c r="G96" t="n">
-        <v>-23</v>
+        <v>-32</v>
       </c>
       <c r="H96" t="n">
-        <v>7248.333333333333</v>
+        <v>7252.666666666667</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -35277,19 +35245,19 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.4179682469503976</v>
+        <v>0.3757536153483676</v>
       </c>
       <c r="N96" t="n">
-        <v>-0.8099511592029622</v>
+        <v>-0.885747482567633</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.07918367346938776</v>
+        <v>-0.08653061224489796</v>
       </c>
       <c r="P96" t="n">
-        <v>-97</v>
+        <v>-106</v>
       </c>
       <c r="Q96" t="n">
-        <v>14048.33333333333</v>
+        <v>14052.66666666667</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -35313,25 +35281,25 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2294691751122271</v>
+        <v>0.2066495092448326</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.201727365224091</v>
+        <v>-1.262832146506672</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1257928118393235</v>
+        <v>-0.1321353065539112</v>
       </c>
       <c r="G97" t="n">
-        <v>-119</v>
+        <v>-125</v>
       </c>
       <c r="H97" t="n">
         <v>9641.666666666666</v>
       </c>
       <c r="I97" t="n">
-        <v>-0.04166666666666666</v>
+        <v>-0.04347826086956522</v>
       </c>
       <c r="J97" t="n">
-        <v>5.395833333333333</v>
+        <v>5.434782608695652</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -35342,16 +35310,16 @@
         <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0.6617784824364237</v>
+        <v>0.6255958316769548</v>
       </c>
       <c r="N97" t="n">
-        <v>-0.4374590297374297</v>
+        <v>-0.48793507163021</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.04326530612244898</v>
+        <v>-0.04816326530612245</v>
       </c>
       <c r="P97" t="n">
-        <v>-53</v>
+        <v>-59</v>
       </c>
       <c r="Q97" t="n">
         <v>14129.66666666667</v>
@@ -35378,16 +35346,16 @@
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6891303253745025</v>
+        <v>0.650279717978357</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.4000355602969987</v>
+        <v>-0.4533736350032652</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.06324110671936758</v>
+        <v>-0.07114624505928854</v>
       </c>
       <c r="G98" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="H98" t="n">
         <v>1406</v>
@@ -35413,10 +35381,10 @@
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0.002016129032258064</v>
+        <v>-0.002016129032258064</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q98" t="n">
         <v>3683</v>
@@ -35425,7 +35393,7 @@
         <v>0</v>
       </c>
       <c r="S98" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -35508,19 +35476,19 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2226628083616653</v>
+        <v>0.2066795850378638</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.219478033230792</v>
+        <v>-1.26274848059133</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.1273532668881506</v>
+        <v>-0.1317829457364341</v>
       </c>
       <c r="G100" t="n">
-        <v>-115</v>
+        <v>-119</v>
       </c>
       <c r="H100" t="n">
-        <v>8739</v>
+        <v>8732.333333333334</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -35537,19 +35505,19 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0.4807394792455133</v>
+        <v>0.4597412683969262</v>
       </c>
       <c r="N100" t="n">
-        <v>-0.7051137035067317</v>
+        <v>-0.7392729548556963</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.06857142857142857</v>
+        <v>-0.07183673469387755</v>
       </c>
       <c r="P100" t="n">
-        <v>-84</v>
+        <v>-88</v>
       </c>
       <c r="Q100" t="n">
-        <v>13856</v>
+        <v>13849.33333333333</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -35703,25 +35671,25 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2697196326378344</v>
+        <v>0.2523804739627122</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.103708441464407</v>
+        <v>-1.144586531889015</v>
       </c>
       <c r="F103" t="n">
-        <v>-0.1152219873150106</v>
+        <v>-0.1194503171247357</v>
       </c>
       <c r="G103" t="n">
-        <v>-109</v>
+        <v>-113</v>
       </c>
       <c r="H103" t="n">
         <v>9575</v>
       </c>
       <c r="I103" t="n">
-        <v>-0.02565789473684211</v>
+        <v>-0.0277992277992278</v>
       </c>
       <c r="J103" t="n">
-        <v>4.551644736842105</v>
+        <v>4.597683397683397</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -35732,16 +35700,16 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.6020807112192084</v>
+        <v>0.5780936921032838</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.5214106827280515</v>
+        <v>-0.5561713949099215</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.05187074829931973</v>
+        <v>-0.05527210884353741</v>
       </c>
       <c r="P103" t="n">
-        <v>-61</v>
+        <v>-65</v>
       </c>
       <c r="Q103" t="n">
         <v>13241.66666666667</v>
@@ -35768,19 +35736,19 @@
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3458991348277509</v>
+        <v>0.3286318583131211</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.9425734314719417</v>
+        <v>-0.9768733471018695</v>
       </c>
       <c r="F104" t="n">
-        <v>-0.1024390243902439</v>
+        <v>-0.1060975609756098</v>
       </c>
       <c r="G104" t="n">
-        <v>-84</v>
+        <v>-87</v>
       </c>
       <c r="H104" t="n">
-        <v>7754</v>
+        <v>7750.333333333333</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -35797,19 +35765,19 @@
         <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0.8131104023060067</v>
+        <v>0.793491244250655</v>
       </c>
       <c r="N104" t="n">
-        <v>-0.2364153292085638</v>
+        <v>-0.2617797599859342</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.0236734693877551</v>
+        <v>-0.02612244897959184</v>
       </c>
       <c r="P104" t="n">
-        <v>-29</v>
+        <v>-32</v>
       </c>
       <c r="Q104" t="n">
-        <v>14027</v>
+        <v>14023.33333333333</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
@@ -35898,19 +35866,19 @@
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9782977253361409</v>
+        <v>0.7014858414875129</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.02720312237222455</v>
+        <v>0.3833155087878891</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.007905138339920948</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="G106" t="n">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="H106" t="n">
-        <v>1351.333333333333</v>
+        <v>1531.333333333333</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -35920,32 +35888,32 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.04419050398386126</v>
+        <v>0.07544198412391845</v>
       </c>
       <c r="N106" t="n">
-        <v>2.012279292889338</v>
+        <v>1.777767890708402</v>
       </c>
       <c r="O106" t="n">
-        <v>0.2370766488413547</v>
+        <v>0.2103386809269162</v>
       </c>
       <c r="P106" t="n">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q106" t="n">
-        <v>4303</v>
+        <v>4331.333333333333</v>
       </c>
       <c r="R106" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>1.083333333333333</v>
       </c>
     </row>
     <row r="107">
@@ -35963,25 +35931,25 @@
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.05412657644747054</v>
+        <v>0.1228529654115771</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.925822216299108</v>
+        <v>-1.542908552578355</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.5714285714285714</v>
+        <v>-0.4166666666666667</v>
       </c>
       <c r="G107" t="n">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="H107" t="n">
-        <v>60.66666666666666</v>
+        <v>82.33333333333333</v>
       </c>
       <c r="I107" t="n">
-        <v>-1</v>
+        <v>-0.5833333333333333</v>
       </c>
       <c r="J107" t="n">
-        <v>5.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -35992,19 +35960,19 @@
         <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03408771296152491</v>
+        <v>0.01775023085716976</v>
       </c>
       <c r="N107" t="n">
-        <v>-2.119032588411943</v>
+        <v>-2.370787546067132</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.1322448979591837</v>
+        <v>-0.1551020408163265</v>
       </c>
       <c r="P107" t="n">
-        <v>-162</v>
+        <v>-190</v>
       </c>
       <c r="Q107" t="n">
-        <v>5772.666666666667</v>
+        <v>6355.333333333333</v>
       </c>
       <c r="R107" t="n">
         <v>0</v>
@@ -36028,25 +35996,25 @@
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.287611320056488</v>
+        <v>0.32418189071474</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.06337633543785</v>
+        <v>-0.985900603509299</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.3809523809523809</v>
+        <v>-0.2777777777777778</v>
       </c>
       <c r="G108" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H108" t="n">
-        <v>43.33333333333334</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="I108" t="n">
-        <v>-0.75</v>
+        <v>-0.35</v>
       </c>
       <c r="J108" t="n">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -36057,19 +36025,19 @@
         <v>1</v>
       </c>
       <c r="M108" t="n">
-        <v>0.04211090992121913</v>
+        <v>0.02396341571238558</v>
       </c>
       <c r="N108" t="n">
-        <v>-2.032422423663462</v>
+        <v>-2.257715284331158</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.12</v>
+        <v>-0.1477551020408163</v>
       </c>
       <c r="P108" t="n">
-        <v>-147</v>
+        <v>-181</v>
       </c>
       <c r="Q108" t="n">
-        <v>5160.333333333333</v>
+        <v>6356.333333333333</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -36093,25 +36061,25 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>0.008689606148633455</v>
+        <v>0.003584993316060991</v>
       </c>
       <c r="E109" t="n">
-        <v>2.624030271995461</v>
+        <v>2.912542570066759</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2779623477297896</v>
+        <v>0.3044397463002114</v>
       </c>
       <c r="G109" t="n">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="H109" t="n">
-        <v>9077</v>
+        <v>9710</v>
       </c>
       <c r="I109" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J109" t="n">
-        <v>3.473684210526316</v>
+        <v>3.136363636363637</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -36122,25 +36090,25 @@
         <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0.02193744283682264</v>
+        <v>0.02729992116461211</v>
       </c>
       <c r="N109" t="n">
-        <v>2.291449268299388</v>
+        <v>2.207202414583564</v>
       </c>
       <c r="O109" t="n">
-        <v>0.2236734693877551</v>
+        <v>0.2155102040816327</v>
       </c>
       <c r="P109" t="n">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q109" t="n">
-        <v>14194</v>
+        <v>14198</v>
       </c>
       <c r="R109" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="S109" t="n">
-        <v>2.333333333333334</v>
+        <v>2.462962962962963</v>
       </c>
     </row>
     <row r="110">
@@ -36223,25 +36191,25 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3185674986433022</v>
+        <v>0.2580948460839809</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.9974059619080593</v>
+        <v>-1.130905552387578</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.3214285714285715</v>
+        <v>-0.3571428571428572</v>
       </c>
       <c r="G111" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="H111" t="n">
-        <v>64.33333333333333</v>
+        <v>63.33333333333334</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.9</v>
+        <v>-0.875</v>
       </c>
       <c r="J111" t="n">
-        <v>26.65</v>
+        <v>27.5625</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -36252,19 +36220,19 @@
         <v>1</v>
       </c>
       <c r="M111" t="n">
-        <v>6.00579559884018e-06</v>
+        <v>5.632479143535818e-06</v>
       </c>
       <c r="N111" t="n">
-        <v>-4.526185188138031</v>
+        <v>-4.53973568021018</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.2816326530612245</v>
+        <v>-0.2824489795918367</v>
       </c>
       <c r="P111" t="n">
-        <v>-345</v>
+        <v>-346</v>
       </c>
       <c r="Q111" t="n">
-        <v>5776.333333333333</v>
+        <v>5775.333333333333</v>
       </c>
       <c r="R111" t="n">
         <v>0</v>
@@ -36288,25 +36256,25 @@
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07998983890141709</v>
+        <v>0.0749651768924835</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.75074503131937</v>
+        <v>-1.780677340971843</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.2050420168067227</v>
+        <v>-0.2084033613445378</v>
       </c>
       <c r="G112" t="n">
-        <v>-122</v>
+        <v>-124</v>
       </c>
       <c r="H112" t="n">
-        <v>4776.666666666667</v>
+        <v>4771.333333333333</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.06060606060606061</v>
+        <v>-0.0625</v>
       </c>
       <c r="J112" t="n">
-        <v>4.03030303030303</v>
+        <v>4.0625</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -36317,19 +36285,19 @@
         <v>1</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0005346532890870836</v>
+        <v>0.0004960822984565461</v>
       </c>
       <c r="N112" t="n">
-        <v>-3.462765929098072</v>
+        <v>-3.482862926736459</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.3487922705314009</v>
+        <v>-0.3507246376811594</v>
       </c>
       <c r="P112" t="n">
-        <v>-361</v>
+        <v>-363</v>
       </c>
       <c r="Q112" t="n">
-        <v>10808.33333333333</v>
+        <v>10803</v>
       </c>
       <c r="R112" t="n">
         <v>-0.09090909090909091</v>
